--- a/MSP_Projekt_2019-20_Reseni.xlsx
+++ b/MSP_Projekt_2019-20_Reseni.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harmim/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harmim/Google Drive/VUT/NVER/MSP/Projekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BAECD3-6812-C347-99C3-9845E97C762B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093D8ADE-2640-1E4A-A29E-68E248A3A5A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14580" activeTab="1" xr2:uid="{2738950E-B79B-4841-949D-6F671DC20716}"/>
+    <workbookView xWindow="-6120" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{2738950E-B79B-4841-949D-6F671DC20716}"/>
   </bookViews>
   <sheets>
     <sheet name="Příklad 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="124">
   <si>
     <t>X [mm]</t>
   </si>
@@ -329,10 +329,88 @@
     <t>H: beta1</t>
   </si>
   <si>
-    <t>y priemer</t>
-  </si>
-  <si>
-    <t>x priemer</t>
+    <t>h11</t>
+  </si>
+  <si>
+    <t>HA: beta0 not</t>
+  </si>
+  <si>
+    <t>H: beta0</t>
+  </si>
+  <si>
+    <t>2)</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>S*min</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>1)</t>
+  </si>
+  <si>
+    <t>det(H)</t>
+  </si>
+  <si>
+    <t>&lt;0;2,100922037&gt;</t>
+  </si>
+  <si>
+    <t>Walfa</t>
+  </si>
+  <si>
+    <t>t 1-alfa/2(20-2)</t>
+  </si>
+  <si>
+    <t>h*</t>
+  </si>
+  <si>
+    <t>individuálne y</t>
+  </si>
+  <si>
+    <t>stredne y</t>
+  </si>
+  <si>
+    <t>Y - Váha [kg]</t>
+  </si>
+  <si>
+    <t>X - Výška [cm]</t>
+  </si>
+  <si>
+    <t>3)</t>
+  </si>
+  <si>
+    <t>zamítá</t>
+  </si>
+  <si>
+    <t>xi</t>
+  </si>
+  <si>
+    <t>yi</t>
+  </si>
+  <si>
+    <t>xi^2</t>
+  </si>
+  <si>
+    <t>yi^2</t>
+  </si>
+  <si>
+    <t>xi*yi</t>
+  </si>
+  <si>
+    <t>suma</t>
+  </si>
+  <si>
+    <t>x průmrěr</t>
+  </si>
+  <si>
+    <t>y průmrěr</t>
   </si>
   <si>
     <r>
@@ -348,81 +426,25 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t>nezamieta</t>
+      <t>nezamítá</t>
     </r>
   </si>
   <si>
-    <t>h11</t>
-  </si>
-  <si>
-    <t>HA: beta0 not</t>
-  </si>
-  <si>
-    <t>H: beta0</t>
-  </si>
-  <si>
-    <t>2)</t>
-  </si>
-  <si>
-    <t>s2</t>
-  </si>
-  <si>
-    <t>S*min</t>
-  </si>
-  <si>
-    <t>b1</t>
-  </si>
-  <si>
-    <t>b2</t>
-  </si>
-  <si>
-    <t>1)</t>
-  </si>
-  <si>
-    <t>det(H)</t>
-  </si>
-  <si>
-    <t>zamieta</t>
-  </si>
-  <si>
-    <t>&lt;0;2,100922037&gt;</t>
-  </si>
-  <si>
-    <t>Walfa</t>
-  </si>
-  <si>
-    <t>t 1-alfa/2(20-2)</t>
-  </si>
-  <si>
-    <t>horné</t>
-  </si>
-  <si>
-    <t>dolné</t>
-  </si>
-  <si>
-    <t>h*</t>
-  </si>
-  <si>
-    <t>individuálne y</t>
-  </si>
-  <si>
-    <t>stredne y</t>
-  </si>
-  <si>
-    <t>Y - Váha [kg]</t>
-  </si>
-  <si>
-    <t>X - Výška [cm]</t>
-  </si>
-  <si>
-    <t>3)</t>
+    <t>dolní</t>
+  </si>
+  <si>
+    <t>horní</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.0000000000000"/>
+  </numFmts>
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -509,6 +531,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -780,108 +810,108 @@
   </cellStyleXfs>
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1014,7 +1044,7 @@
             <c:numRef>
               <c:f>'Příklad 1'!$J$7:$J$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.02</c:v>
@@ -1142,7 +1172,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1185,37 +1215,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1357,7 +1356,7 @@
             <c:numRef>
               <c:f>'Příklad 1'!$K$7:$K$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.02</c:v>
@@ -1485,7 +1484,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1676,25 +1675,25 @@
             <c:numRef>
               <c:f>'Příklad 1'!$G$42:$G$47</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-500.14181818181817</c:v>
+                  <c:v>-500.14045454545453</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.4090909090909088E-2</c:v>
+                  <c:v>-3.1363636363636233E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46500000000000002</c:v>
+                  <c:v>0.46772727272727288</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.96409090909090911</c:v>
+                  <c:v>0.96681818181818202</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4631818181818181</c:v>
+                  <c:v>1.4659090909090911</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>500.85636363636365</c:v>
+                  <c:v>500.85772727272729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1703,7 +1702,7 @@
             <c:numRef>
               <c:f>'Příklad 1'!$I$42:$I$47</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>9</c:v>
@@ -1760,25 +1759,25 @@
             <c:numRef>
               <c:f>'Příklad 1'!$G$42:$G$47</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-500.14181818181817</c:v>
+                  <c:v>-500.14045454545453</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.4090909090909088E-2</c:v>
+                  <c:v>-3.1363636363636233E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46500000000000002</c:v>
+                  <c:v>0.46772727272727288</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.96409090909090911</c:v>
+                  <c:v>0.96681818181818202</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4631818181818181</c:v>
+                  <c:v>1.4659090909090911</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>500.85636363636365</c:v>
+                  <c:v>500.85772727272729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1787,25 +1786,25 @@
             <c:numRef>
               <c:f>'Příklad 1'!$J$42:$J$47</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.8888263507915166</c:v>
+                  <c:v>8.9207868386954203</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9792661948271011</c:v>
+                  <c:v>6.9910282943689017</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6072448275208551</c:v>
+                  <c:v>8.6124244785569939</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.7077466414051674</c:v>
+                  <c:v>8.7035623701424232</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.2266161743315234</c:v>
+                  <c:v>7.2153304718395148</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.5902998111238364</c:v>
+                  <c:v>9.556867546396747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1836,7 +1835,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1901,7 +1900,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2034,6 +2033,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Regresní</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> přímka</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2072,6 +2101,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Výška</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -2088,7 +2120,7 @@
             <c:numRef>
               <c:f>'Príklad 2'!$G$4:$G$23</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>150</c:v>
@@ -2157,7 +2189,7 @@
             <c:numRef>
               <c:f>'Príklad 2'!$H$4:$H$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>49.102002736813347</c:v>
@@ -2244,7 +2276,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF7C6D"/>
               </a:solidFill>
               <a:ln w="15875">
                 <a:noFill/>
@@ -2256,7 +2288,7 @@
             <c:numRef>
               <c:f>'Príklad 2'!$A$4:$A$23</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>150</c:v>
@@ -2325,7 +2357,7 @@
             <c:numRef>
               <c:f>'Príklad 2'!$B$4:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0000000000000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>50.439765218123881</c:v>
@@ -2412,8 +2444,8 @@
         <c:axId val="471423192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="200"/>
-          <c:min val="150"/>
+          <c:max val="210"/>
+          <c:min val="140"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2431,7 +2463,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Výška</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2449,7 +2536,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2493,7 +2580,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Váha</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2601,6 +2743,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Pás spolehlivosti pro střední hodnotu</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2655,7 +2822,7 @@
             <c:numRef>
               <c:f>'Príklad 2'!$G$4:$G$23</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>150</c:v>
@@ -2724,7 +2891,7 @@
             <c:numRef>
               <c:f>'Príklad 2'!$H$4:$H$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>49.102002736813347</c:v>
@@ -2828,7 +2995,7 @@
             <c:numRef>
               <c:f>'Príklad 2'!$G$4:$G$23</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>150</c:v>
@@ -2897,7 +3064,7 @@
             <c:numRef>
               <c:f>'Príklad 2'!$I$4:$I$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44.901265229211752</c:v>
@@ -3001,7 +3168,7 @@
             <c:numRef>
               <c:f>'Príklad 2'!$G$4:$G$23</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>150</c:v>
@@ -3070,7 +3237,7 @@
             <c:numRef>
               <c:f>'Príklad 2'!$J$4:$J$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>53.302740244414942</c:v>
@@ -3169,7 +3336,7 @@
             <c:numRef>
               <c:f>'Príklad 2'!$A$4:$A$23</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>150</c:v>
@@ -3238,7 +3405,7 @@
             <c:numRef>
               <c:f>'Príklad 2'!$B$4:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0000000000000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>50.439765218123881</c:v>
@@ -3325,8 +3492,8 @@
         <c:axId val="661918416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="200"/>
-          <c:min val="150"/>
+          <c:max val="210"/>
+          <c:min val="140"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3344,7 +3511,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Výška</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3406,7 +3628,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Váha</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3514,6 +3791,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Pás spolehlivosti pro individuální hodnotu</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3568,7 +3870,7 @@
             <c:numRef>
               <c:f>'Príklad 2'!$G$4:$G$23</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>150</c:v>
@@ -3637,7 +3939,7 @@
             <c:numRef>
               <c:f>'Príklad 2'!$H$4:$H$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>49.102002736813347</c:v>
@@ -3741,7 +4043,7 @@
             <c:numRef>
               <c:f>'Príklad 2'!$G$4:$G$23</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>150</c:v>
@@ -3810,7 +4112,7 @@
             <c:numRef>
               <c:f>'Príklad 2'!$K$4:$K$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>36.119538409109531</c:v>
@@ -3914,7 +4216,7 @@
             <c:numRef>
               <c:f>'Príklad 2'!$G$4:$G$23</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>150</c:v>
@@ -3983,7 +4285,7 @@
             <c:numRef>
               <c:f>'Príklad 2'!$L$4:$L$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>62.084467064517163</c:v>
@@ -4082,7 +4384,7 @@
             <c:numRef>
               <c:f>'Príklad 2'!$A$4:$A$23</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>150</c:v>
@@ -4151,7 +4453,7 @@
             <c:numRef>
               <c:f>'Príklad 2'!$B$4:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0000000000000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>50.439765218123881</c:v>
@@ -4238,8 +4540,8 @@
         <c:axId val="661918416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="200"/>
-          <c:min val="150"/>
+          <c:max val="210"/>
+          <c:min val="140"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4257,7 +4559,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Výška</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4319,7 +4676,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Váha</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7715,14 +8127,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>527050</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>199570</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1515478</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>125142</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7749,16 +8161,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1912256</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1511300</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1158971</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>134215</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7792,9 +8204,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1136650</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>1619800</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>132400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7827,15 +8239,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>318294</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>29600</xdr:rowOff>
+      <xdr:colOff>346516</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>15488</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>226328</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>104389</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>105766</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>108378</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7865,15 +8277,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>376578</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>182904</xdr:rowOff>
+      <xdr:colOff>362465</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>170204</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>281328</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>127119</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>135322</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>35904</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7902,16 +8314,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>408516</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>58561</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>168271</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>109117</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8241,111 +8653,113 @@
   <dimension ref="A1:K150"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="34.6640625" customWidth="1"/>
-    <col min="5" max="5" width="27.83203125" customWidth="1"/>
-    <col min="6" max="6" width="32.1640625" customWidth="1"/>
-    <col min="7" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" customWidth="1"/>
-    <col min="9" max="9" width="24.1640625" customWidth="1"/>
-    <col min="10" max="10" width="17.1640625" customWidth="1"/>
-    <col min="11" max="11" width="24.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="26" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.1640625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22" thickBot="1">
       <c r="A1" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:11" ht="17" thickBot="1">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>1.38</v>
       </c>
       <c r="B4" s="2">
         <v>-2.2799999999999998</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="1">
         <f>MIN(B4:B53)</f>
         <v>-2.2799999999999998</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="1">
         <f>MAX(B4:B53)</f>
         <v>3.21</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="1">
         <f>D4</f>
         <v>-2.2799999999999998</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="1">
         <f>E4</f>
         <v>3.21</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="1">
         <f>E4-D4</f>
         <v>5.49</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>11</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="1">
         <f>(E4-D4)/I4</f>
         <v>0.49909090909090909</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <f>COUNT(B4:B53)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>0.72</v>
       </c>
@@ -8354,42 +8768,42 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>0.18</v>
       </c>
       <c r="B6" s="2">
         <v>-0.76</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>-0.11</v>
       </c>
@@ -8399,36 +8813,36 @@
       <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="1">
         <f>$D$4</f>
         <v>-2.2799999999999998</v>
       </c>
-      <c r="F7" s="5">
-        <f>E7+$J$4</f>
+      <c r="F7" s="1">
+        <f>E7+J4</f>
         <v>-1.7809090909090908</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="1">
         <f>(E7+F7)/2</f>
         <v>-2.0304545454545453</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <f>$I$7</f>
         <v>1</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <f>COUNTIFS($B$4:$B$53,"&gt;="&amp;E7, $B$4:$B$53, "&lt;"&amp;F7)</f>
         <v>1</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <f>I7/50</f>
         <v>0.02</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <f>H7/50</f>
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>1.05</v>
       </c>
@@ -8438,36 +8852,36 @@
       <c r="D8" s="2">
         <v>2</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="1">
         <f>F7</f>
         <v>-1.7809090909090908</v>
       </c>
-      <c r="F8" s="5">
-        <f t="shared" ref="F8:F17" si="0">E8+$J$4</f>
-        <v>-1.2818181818181817</v>
-      </c>
-      <c r="G8" s="5">
-        <f t="shared" ref="G8:G17" si="1">(E8+F8)/2</f>
-        <v>-1.5313636363636363</v>
-      </c>
-      <c r="H8">
+      <c r="F8" s="1">
+        <f t="shared" ref="F8:F17" si="0">E8+0.5</f>
+        <v>-1.2809090909090908</v>
+      </c>
+      <c r="G8" s="1">
+        <f>(E8+F8)/2</f>
+        <v>-1.5309090909090908</v>
+      </c>
+      <c r="H8" s="1">
         <f>H7+I8</f>
         <v>1</v>
       </c>
-      <c r="I8">
-        <f t="shared" ref="I8:I16" si="2">COUNTIFS($B$4:$B$53,"&gt;="&amp;E8, $B$4:$B$53, "&lt;"&amp;F8)</f>
+      <c r="I8" s="1">
+        <f>COUNTIFS($B$4:$B$53,"&gt;="&amp;E8, $B$4:$B$53, "&lt;"&amp;F8)</f>
         <v>0</v>
       </c>
-      <c r="J8">
-        <f t="shared" ref="J8:J17" si="3">I8/50</f>
+      <c r="J8" s="1">
+        <f t="shared" ref="J8:J17" si="1">I8/50</f>
         <v>0</v>
       </c>
-      <c r="K8">
-        <f t="shared" ref="K8:K17" si="4">H8/50</f>
+      <c r="K8" s="1">
+        <f t="shared" ref="K8:K17" si="2">H8/50</f>
         <v>0.02</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>1.45</v>
       </c>
@@ -8477,348 +8891,348 @@
       <c r="D9" s="2">
         <v>3</v>
       </c>
-      <c r="E9" s="5">
-        <f t="shared" ref="E9:E17" si="5">F8</f>
-        <v>-1.2818181818181817</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="E9" s="1">
+        <f>F8</f>
+        <v>-1.2809090909090908</v>
+      </c>
+      <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>-0.78272727272727272</v>
-      </c>
-      <c r="G9" s="5">
+        <v>-0.78090909090909078</v>
+      </c>
+      <c r="G9" s="1">
+        <f>(E9+F9)/2</f>
+        <v>-1.0309090909090908</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" ref="H9:H17" si="3">H8+I9</f>
+        <v>2</v>
+      </c>
+      <c r="I9" s="1">
+        <f>COUNTIFS($B$4:$B$53,"&gt;="&amp;E9, $B$4:$B$53, "&lt;"&amp;F9)</f>
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
         <f t="shared" si="1"/>
-        <v>-1.0322727272727272</v>
-      </c>
-      <c r="H9">
-        <f t="shared" ref="H9:H17" si="6">H8+I9</f>
+        <v>0.02</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="B10" s="2">
+        <v>-0.54</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1">
+        <f>F9</f>
+        <v>-0.78090909090909078</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.28090909090909078</v>
+      </c>
+      <c r="G10" s="1">
+        <f>(E10+F10)/2</f>
+        <v>-0.53090909090909078</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="I10" s="1">
+        <f>COUNTIFS($B$4:$B$53,"&gt;="&amp;E10, $B$4:$B$53, "&lt;"&amp;F10)</f>
+        <v>7</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="B11" s="2">
+        <v>-0.53</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1">
+        <f>F10</f>
+        <v>-0.28090909090909078</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.21909090909090922</v>
+      </c>
+      <c r="G11" s="1">
+        <f>(E11+F11)/2</f>
+        <v>-3.0909090909090775E-2</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="I11" s="1">
+        <f>COUNTIFS($B$4:$B$53,"&gt;="&amp;E11, $B$4:$B$53, "&lt;"&amp;F11)</f>
+        <v>6</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2">
+        <v>-0.54</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-0.48</v>
+      </c>
+      <c r="D12" s="2">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1">
+        <f>F11</f>
+        <v>0.21909090909090922</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.71909090909090922</v>
+      </c>
+      <c r="G12" s="1">
+        <f>(E12+F12)/2</f>
+        <v>0.46909090909090922</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="I12" s="1">
+        <f>COUNTIFS($B$4:$B$53,"&gt;="&amp;E12, $B$4:$B$53, "&lt;"&amp;F12)</f>
+        <v>10</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2">
+        <v>1.88</v>
+      </c>
+      <c r="B13" s="2">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="D13" s="2">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1">
+        <f>F12</f>
+        <v>0.71909090909090922</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2190909090909092</v>
+      </c>
+      <c r="G13" s="1">
+        <f>(E13+F13)/2</f>
+        <v>0.96909090909090922</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="I13" s="1">
+        <f>COUNTIFS($B$4:$B$53,"&gt;="&amp;E13, $B$4:$B$53, "&lt;"&amp;F13)</f>
+        <v>11</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.22</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2">
+        <v>2.37</v>
+      </c>
+      <c r="B14" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1">
+        <f>F13</f>
+        <v>1.2190909090909092</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7190909090909092</v>
+      </c>
+      <c r="G14" s="1">
+        <f>(E14+F14)/2</f>
+        <v>1.4690909090909092</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="I14" s="1">
+        <f>COUNTIFS($B$4:$B$53,"&gt;="&amp;E14, $B$4:$B$53, "&lt;"&amp;F14)</f>
+        <v>5</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="B15" s="2">
+        <v>-0.11</v>
+      </c>
+      <c r="D15" s="2">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1">
+        <f>F14</f>
+        <v>1.7190909090909092</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2190909090909092</v>
+      </c>
+      <c r="G15" s="1">
+        <f>(E15+F15)/2</f>
+        <v>1.9690909090909092</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="I15" s="1">
+        <f>COUNTIFS($B$4:$B$53,"&gt;="&amp;E15, $B$4:$B$53, "&lt;"&amp;F15)</f>
+        <v>3</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.06</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="2"/>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="2">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="B16" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1">
+        <f>F15</f>
+        <v>2.2190909090909092</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7190909090909092</v>
+      </c>
+      <c r="G16" s="1">
+        <f>(E16+F16)/2</f>
+        <v>2.4690909090909092</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="I16" s="1">
+        <f>COUNTIFS($B$4:$B$53,"&gt;="&amp;E16, $B$4:$B$53, "&lt;"&amp;F16)</f>
         <v>2</v>
       </c>
-      <c r="I9">
+      <c r="J16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="2"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="2">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="D17" s="2">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1">
+        <f>F16</f>
+        <v>2.7190909090909092</v>
+      </c>
+      <c r="F17" s="1">
+        <f>E4</f>
+        <v>3.21</v>
+      </c>
+      <c r="G17" s="1">
+        <f>(E17+F17)/2</f>
+        <v>2.9645454545454548</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="I17" s="1">
+        <f>COUNTIFS($B$4:$B$53,"&gt;="&amp;E17, $B$4:$B$53, "&lt;="&amp;F17)</f>
+        <v>4</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.08</v>
+      </c>
+      <c r="K17" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J9">
-        <f t="shared" si="3"/>
-        <v>0.02</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="4"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>-0.28000000000000003</v>
-      </c>
-      <c r="B10" s="2">
-        <v>-0.54</v>
-      </c>
-      <c r="D10" s="2">
-        <v>4</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" si="5"/>
-        <v>-0.78272727272727272</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" si="0"/>
-        <v>-0.28363636363636363</v>
-      </c>
-      <c r="G10" s="5">
-        <f t="shared" si="1"/>
-        <v>-0.5331818181818182</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="3"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="4"/>
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="B11" s="2">
-        <v>-0.53</v>
-      </c>
-      <c r="D11" s="2">
-        <v>5</v>
-      </c>
-      <c r="E11" s="5">
-        <f t="shared" si="5"/>
-        <v>-0.28363636363636363</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="0"/>
-        <v>0.21545454545454545</v>
-      </c>
-      <c r="G11" s="5">
-        <f t="shared" si="1"/>
-        <v>-3.4090909090909088E-2</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="3"/>
-        <v>0.12</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="4"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>-0.54</v>
-      </c>
-      <c r="B12" s="2">
-        <v>-0.48</v>
-      </c>
-      <c r="D12" s="2">
-        <v>6</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" si="5"/>
-        <v>0.21545454545454545</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" si="0"/>
-        <v>0.71454545454545459</v>
-      </c>
-      <c r="G12" s="5">
-        <f t="shared" si="1"/>
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>1.88</v>
-      </c>
-      <c r="B13" s="2">
-        <v>-0.28000000000000003</v>
-      </c>
-      <c r="D13" s="2">
-        <v>7</v>
-      </c>
-      <c r="E13" s="5">
-        <f t="shared" si="5"/>
-        <v>0.71454545454545459</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="0"/>
-        <v>1.2136363636363636</v>
-      </c>
-      <c r="G13" s="5">
-        <f t="shared" si="1"/>
-        <v>0.96409090909090911</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="6"/>
-        <v>36</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="3"/>
-        <v>0.22</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="4"/>
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>2.37</v>
-      </c>
-      <c r="B14" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="D14" s="2">
-        <v>8</v>
-      </c>
-      <c r="E14" s="5">
-        <f t="shared" si="5"/>
-        <v>1.2136363636363636</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" si="0"/>
-        <v>1.7127272727272727</v>
-      </c>
-      <c r="G14" s="5">
-        <f t="shared" si="1"/>
-        <v>1.4631818181818181</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="6"/>
-        <v>41</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="4"/>
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="B15" s="2">
-        <v>-0.11</v>
-      </c>
-      <c r="D15" s="2">
-        <v>9</v>
-      </c>
-      <c r="E15" s="5">
-        <f t="shared" si="5"/>
-        <v>1.7127272727272727</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" si="0"/>
-        <v>2.2118181818181819</v>
-      </c>
-      <c r="G15" s="5">
-        <f t="shared" si="1"/>
-        <v>1.9622727272727274</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="6"/>
-        <v>44</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="3"/>
-        <v>0.06</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="4"/>
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>-0.55000000000000004</v>
-      </c>
-      <c r="B16" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D16" s="2">
-        <v>10</v>
-      </c>
-      <c r="E16" s="5">
-        <f t="shared" si="5"/>
-        <v>2.2118181818181819</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" si="0"/>
-        <v>2.7109090909090909</v>
-      </c>
-      <c r="G16" s="5">
-        <f t="shared" si="1"/>
-        <v>2.4613636363636364</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="6"/>
-        <v>46</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="3"/>
-        <v>0.04</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="4"/>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="D17" s="2">
-        <v>11</v>
-      </c>
-      <c r="E17" s="5">
-        <f t="shared" si="5"/>
-        <v>2.7109090909090909</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="0"/>
-        <v>3.21</v>
-      </c>
-      <c r="G17" s="5">
-        <f t="shared" si="1"/>
-        <v>2.9604545454545454</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="6"/>
-        <v>50</v>
-      </c>
-      <c r="I17">
-        <f>COUNTIFS($B$4:$B$53,"&gt;="&amp;E17, $B$4:$B$53, "&lt;="&amp;F17)</f>
-        <v>4</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="3"/>
-        <v>0.08</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>1.29</v>
       </c>
@@ -8827,7 +9241,7 @@
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -8836,7 +9250,7 @@
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>1.59</v>
       </c>
@@ -8844,10 +9258,10 @@
         <v>0.39</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>-0.2</v>
       </c>
@@ -8856,9 +9270,9 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>-0.79</v>
       </c>
@@ -8867,9 +9281,9 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2">
         <v>0.37</v>
       </c>
@@ -8878,9 +9292,9 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>0.95</v>
       </c>
@@ -8889,9 +9303,9 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>0.97</v>
       </c>
@@ -8900,9 +9314,9 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>-2.2799999999999998</v>
       </c>
@@ -8911,9 +9325,9 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>2.88</v>
       </c>
@@ -8922,9 +9336,9 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2">
         <v>0.78</v>
       </c>
@@ -8933,9 +9347,9 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="2">
         <v>0.78</v>
       </c>
@@ -8944,9 +9358,9 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="2">
         <v>-0.65</v>
       </c>
@@ -8955,9 +9369,9 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="2">
         <v>0.39</v>
       </c>
@@ -8966,9 +9380,9 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="7"/>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="2">
         <v>0.49</v>
       </c>
@@ -8976,10 +9390,10 @@
         <v>0.86</v>
       </c>
       <c r="D32" s="2"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="2">
         <v>0.86</v>
       </c>
@@ -8988,33 +9402,33 @@
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34" s="2">
         <v>1.88</v>
       </c>
       <c r="B34" s="2">
         <v>0.95</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="A35" s="2">
         <v>0.47</v>
       </c>
@@ -9025,24 +9439,24 @@
         <f>AVERAGE(B4:B53)</f>
         <v>0.74379999999999991</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="1">
         <f>MEDIAN(B4:B53)</f>
         <v>0.71</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="1">
         <f>_xlfn.MODE.SNGL(B4:B53)</f>
         <v>0.4</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="1">
         <f>_xlfn.VAR.P(B4:B53)</f>
         <v>1.2120275599999997</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="1">
         <f>_xlfn.STDEV.P(B4:B53)</f>
         <v>1.100921232423101</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36" s="2">
         <v>0.51</v>
       </c>
@@ -9051,27 +9465,27 @@
       </c>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37" s="2">
         <v>0.93</v>
       </c>
       <c r="B37" s="2">
         <v>1.05</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11">
       <c r="A38" s="2">
         <v>3.21</v>
       </c>
@@ -9082,16 +9496,16 @@
         <f>AVERAGE(B4:B53)</f>
         <v>0.74379999999999991</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
         <f>_xlfn.VAR.S(B4:B53)</f>
         <v>1.2367628163265305</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="1">
         <f>_xlfn.STDEV.S(B4:B53)</f>
         <v>1.1120983842837515</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11">
       <c r="A39" s="2">
         <v>0.6</v>
       </c>
@@ -9100,19 +9514,19 @@
       </c>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11">
       <c r="A40" s="2">
         <v>0.4</v>
       </c>
       <c r="B40" s="2">
         <v>1.29</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11">
       <c r="A41" s="2">
         <v>1.1399999999999999</v>
       </c>
@@ -9122,29 +9536,29 @@
       <c r="D41" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11">
       <c r="A42" s="2">
         <v>2.82</v>
       </c>
@@ -9154,35 +9568,35 @@
       <c r="D42" s="2">
         <v>1</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="1">
         <v>-1000</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="1">
         <f>$F$10</f>
-        <v>-0.28363636363636363</v>
-      </c>
-      <c r="G42" s="5">
-        <f t="shared" ref="G42:G47" si="7">(E42+F42)/2</f>
-        <v>-500.14181818181817</v>
-      </c>
-      <c r="H42">
+        <v>-0.28090909090909078</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" ref="G42:G47" si="4">(E42+F42)/2</f>
+        <v>-500.14045454545453</v>
+      </c>
+      <c r="H42" s="1">
         <f>I42</f>
         <v>9</v>
       </c>
-      <c r="I42">
-        <f t="shared" ref="I42:I47" si="8">COUNTIFS($B$4:$B$53,"&gt;="&amp;E42, $B$4:$B$53, "&lt;"&amp;F42)</f>
+      <c r="I42" s="1">
+        <f t="shared" ref="I42:I47" si="5">COUNTIFS($B$4:$B$53,"&gt;="&amp;E42, $B$4:$B$53, "&lt;"&amp;F42)</f>
         <v>9</v>
       </c>
-      <c r="J42">
-        <f t="shared" ref="J42:J47" si="9">(_xlfn.NORM.DIST(F42,$D$38,$F$38,TRUE)-_xlfn.NORM.DIST(E42,$D$38,$F$38,TRUE))*$K$4</f>
-        <v>8.8888263507915166</v>
-      </c>
-      <c r="K42">
+      <c r="J42" s="1">
+        <f t="shared" ref="J42:J47" si="6">(_xlfn.NORM.DIST(F42,$D$38,$F$38,TRUE)-_xlfn.NORM.DIST(E42,$D$38,$F$38,TRUE))*$K$4</f>
+        <v>8.9207868386954203</v>
+      </c>
+      <c r="K42" s="1">
         <f>(J42-I42)^2/J42</f>
-        <v>1.3904625639615902E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+        <v>7.0338245239171936E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="2">
         <v>1.07</v>
       </c>
@@ -9192,36 +9606,36 @@
       <c r="D43" s="2">
         <v>2</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="1">
         <f>F42</f>
-        <v>-0.28363636363636363</v>
-      </c>
-      <c r="F43" s="5">
+        <v>-0.28090909090909078</v>
+      </c>
+      <c r="F43" s="1">
         <f>E43+$J$4</f>
-        <v>0.21545454545454545</v>
-      </c>
-      <c r="G43" s="5">
-        <f t="shared" si="7"/>
-        <v>-3.4090909090909088E-2</v>
-      </c>
-      <c r="H43">
+        <v>0.21818181818181831</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="4"/>
+        <v>-3.1363636363636233E-2</v>
+      </c>
+      <c r="H43" s="1">
         <f>H42+I43</f>
         <v>15</v>
       </c>
-      <c r="I43">
-        <f t="shared" si="8"/>
+      <c r="I43" s="1">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="J43">
-        <f t="shared" si="9"/>
-        <v>6.9792661948271011</v>
-      </c>
-      <c r="K43">
-        <f t="shared" ref="K43:K47" si="10">(J43-I43)^2/J43</f>
-        <v>0.13740159116468642</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J43" s="1">
+        <f t="shared" si="6"/>
+        <v>6.9910282943689017</v>
+      </c>
+      <c r="K43" s="1">
+        <f t="shared" ref="K43:K47" si="7">(J43-I43)^2/J43</f>
+        <v>0.14048535335364346</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="2">
         <v>1.32</v>
       </c>
@@ -9231,36 +9645,36 @@
       <c r="D44" s="2">
         <v>3</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="1">
         <f>F43</f>
-        <v>0.21545454545454545</v>
-      </c>
-      <c r="F44" s="5">
+        <v>0.21818181818181831</v>
+      </c>
+      <c r="F44" s="1">
         <f>E44+$J$4</f>
-        <v>0.71454545454545459</v>
-      </c>
-      <c r="G44" s="5">
-        <f t="shared" si="7"/>
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="H44">
+        <v>0.7172727272727274</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="4"/>
+        <v>0.46772727272727288</v>
+      </c>
+      <c r="H44" s="1">
         <f>H43+I44</f>
         <v>25</v>
       </c>
-      <c r="I44">
-        <f t="shared" si="8"/>
+      <c r="I44" s="1">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="J44">
-        <f t="shared" si="9"/>
-        <v>8.6072448275208551</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="10"/>
-        <v>0.22536444696741872</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J44" s="1">
+        <f t="shared" si="6"/>
+        <v>8.6124244785569939</v>
+      </c>
+      <c r="K44" s="1">
+        <f t="shared" si="7"/>
+        <v>0.22355677341514688</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="2">
         <v>0.66</v>
       </c>
@@ -9270,36 +9684,36 @@
       <c r="D45" s="2">
         <v>4</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="1">
         <f>F44</f>
-        <v>0.71454545454545459</v>
-      </c>
-      <c r="F45" s="5">
+        <v>0.7172727272727274</v>
+      </c>
+      <c r="F45" s="1">
         <f>E45+$J$4</f>
-        <v>1.2136363636363636</v>
-      </c>
-      <c r="G45" s="5">
-        <f t="shared" si="7"/>
-        <v>0.96409090909090911</v>
-      </c>
-      <c r="H45">
+        <v>1.2163636363636365</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="4"/>
+        <v>0.96681818181818202</v>
+      </c>
+      <c r="H45" s="1">
         <f>H44+I45</f>
         <v>36</v>
       </c>
-      <c r="I45">
-        <f t="shared" si="8"/>
+      <c r="I45" s="1">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="J45">
-        <f t="shared" si="9"/>
-        <v>8.7077466414051674</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="10"/>
-        <v>0.60341965336986247</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J45" s="1">
+        <f t="shared" si="6"/>
+        <v>8.7035623701424232</v>
+      </c>
+      <c r="K45" s="1">
+        <f t="shared" si="7"/>
+        <v>0.60591578063679563</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="2">
         <v>-0.53</v>
       </c>
@@ -9309,36 +9723,36 @@
       <c r="D46" s="2">
         <v>5</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="1">
         <f>F45</f>
-        <v>1.2136363636363636</v>
-      </c>
-      <c r="F46" s="5">
+        <v>1.2163636363636365</v>
+      </c>
+      <c r="F46" s="1">
         <f>E46+$J$4</f>
-        <v>1.7127272727272727</v>
-      </c>
-      <c r="G46" s="5">
-        <f t="shared" si="7"/>
-        <v>1.4631818181818181</v>
-      </c>
-      <c r="H46">
+        <v>1.7154545454545456</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="4"/>
+        <v>1.4659090909090911</v>
+      </c>
+      <c r="H46" s="1">
         <f>H45+I46</f>
         <v>41</v>
       </c>
-      <c r="I46">
-        <f t="shared" si="8"/>
+      <c r="I46" s="1">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="J46">
-        <f t="shared" si="9"/>
-        <v>7.2266161743315234</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="10"/>
-        <v>0.6860499393069478</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J46" s="1">
+        <f t="shared" si="6"/>
+        <v>7.2153304718395148</v>
+      </c>
+      <c r="K46" s="1">
+        <f t="shared" si="7"/>
+        <v>0.6801752350241963</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="2">
         <v>-0.76</v>
       </c>
@@ -9348,35 +9762,35 @@
       <c r="D47" s="2">
         <v>6</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="1">
         <f>F46</f>
-        <v>1.7127272727272727</v>
-      </c>
-      <c r="F47" s="5">
+        <v>1.7154545454545456</v>
+      </c>
+      <c r="F47" s="1">
         <v>1000</v>
       </c>
-      <c r="G47" s="5">
-        <f t="shared" si="7"/>
-        <v>500.85636363636365</v>
-      </c>
-      <c r="H47">
+      <c r="G47" s="1">
+        <f t="shared" si="4"/>
+        <v>500.85772727272729</v>
+      </c>
+      <c r="H47" s="1">
         <f>H46+I47</f>
         <v>50</v>
       </c>
-      <c r="I47">
-        <f t="shared" si="8"/>
+      <c r="I47" s="1">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="J47">
-        <f t="shared" si="9"/>
-        <v>9.5902998111238364</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="10"/>
-        <v>3.6333990998765608E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J47" s="1">
+        <f t="shared" si="6"/>
+        <v>9.556867546396747</v>
+      </c>
+      <c r="K47" s="1">
+        <f t="shared" si="7"/>
+        <v>3.2448023656752631E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="2">
         <v>2.8</v>
       </c>
@@ -9384,63 +9798,63 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="2">
         <v>0.4</v>
       </c>
       <c r="B49" s="2">
         <v>2.4900000000000002</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="2">
         <v>0.7</v>
       </c>
       <c r="B50" s="2">
         <v>2.8</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1">
         <f>SUM(K42:K47)</f>
-        <v>1.6899600843716427</v>
-      </c>
-      <c r="E50">
+        <v>1.6832845485389265</v>
+      </c>
+      <c r="E50" s="1">
         <f>CHIINV(F50,G50)</f>
         <v>7.8147279032511792</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="1">
         <v>0.05</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50" s="1">
         <f>D47-2-1</f>
         <v>3</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="1">
         <v>0</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="1">
         <f>E50</f>
         <v>7.8147279032511792</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" s="2">
         <v>-0.68</v>
       </c>
@@ -9450,11 +9864,8 @@
       <c r="D51" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="2">
         <v>0.19</v>
       </c>
@@ -9462,11 +9873,8 @@
         <v>2.88</v>
       </c>
       <c r="D52" s="2"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="2">
         <v>-0.48</v>
       </c>
@@ -9475,345 +9883,345 @@
       </c>
       <c r="D53" s="2"/>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C66" t="s">
+    <row r="66" spans="3:6">
+      <c r="C66" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:6">
       <c r="D67" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:6">
       <c r="D68" s="2">
-        <f>AVERAGE(B4:B83)</f>
+        <f>AVERAGE(B4:B53)</f>
         <v>0.74379999999999991</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="1">
         <f>_xlfn.VAR.S(B4:B83)</f>
         <v>1.2367628163265305</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="1">
         <f>_xlfn.STDEV.S(B4:B83)</f>
         <v>1.1120983842837515</v>
       </c>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D71" s="10" t="s">
+    <row r="71" spans="3:6">
+      <c r="D71" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D72" t="s">
+    <row r="72" spans="3:6">
+      <c r="D72" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D73">
+    <row r="73" spans="3:6">
+      <c r="D73" s="1">
         <f>TINV(E73,F73)</f>
         <v>2.0095752371292388</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="1">
         <v>0.05</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="1">
         <f>$K$4-1</f>
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D75" t="s">
+    <row r="75" spans="3:6">
+      <c r="D75" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D76">
+    <row r="76" spans="3:6">
+      <c r="D76" s="1">
         <f>TINV(E76,F76)</f>
         <v>2.6799519736315514</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="1">
         <v>0.01</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="1">
         <f>$K$4-1</f>
         <v>49</v>
       </c>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D78" t="s">
+    <row r="78" spans="3:6">
+      <c r="D78" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D79">
+    <row r="79" spans="3:6">
+      <c r="D79" s="1">
         <f>D68-D73*F68/SQRT(K4)</f>
         <v>0.42774513618467602</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="1">
         <f>D68+D73*F68/SQRT(K4)</f>
         <v>1.0598548638153238</v>
       </c>
     </row>
-    <row r="81" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D81" t="s">
+    <row r="81" spans="4:7">
+      <c r="D81" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="82" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D82">
+    <row r="82" spans="4:7">
+      <c r="D82" s="1">
         <f>D68-D76*F68/SQRT(K4)</f>
         <v>0.32231199576497566</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="1">
         <f>D68+D76*F68/SQRT(K4)</f>
         <v>1.1652880042350242</v>
       </c>
     </row>
-    <row r="84" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D84" s="10" t="s">
+    <row r="84" spans="4:7">
+      <c r="D84" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D85" t="s">
+    <row r="85" spans="4:7">
+      <c r="D85" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D86">
+    <row r="86" spans="4:7">
+      <c r="D86" s="1">
         <f>CHIINV(1-F86,G86)</f>
         <v>31.554916462667144</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="1">
         <f>CHIINV(F86,G86)</f>
         <v>70.22241356643454</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="1">
         <f>K4-1</f>
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D88" t="s">
+    <row r="88" spans="4:7">
+      <c r="D88" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D89">
+    <row r="89" spans="4:7">
+      <c r="D89" s="1">
         <f>CHIINV(1-F89,G89)</f>
         <v>27.249349069569636</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="1">
         <f>CHIINV(F89,G89)</f>
         <v>78.230708086689944</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="1">
         <f>K4-1</f>
         <v>49</v>
       </c>
     </row>
-    <row r="91" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D91" t="s">
+    <row r="91" spans="4:7">
+      <c r="D91" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="92" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D92">
+    <row r="92" spans="4:7">
+      <c r="D92" s="1">
         <f>((K4-1)*F68)/E86</f>
         <v>0.77600324543602317</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="1">
         <f>((K4-1)*F68)/D86</f>
         <v>1.7269201423611655</v>
       </c>
     </row>
-    <row r="94" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D94" t="s">
+    <row r="94" spans="4:7">
+      <c r="D94" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="95" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D95">
+    <row r="95" spans="4:7">
+      <c r="D95" s="1">
         <f>((K4-1)*F68)/E89</f>
         <v>0.69656560911501142</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="1">
         <f>((K4-1)*F68)/D89</f>
         <v>1.9997843137749662</v>
       </c>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D97" s="10" t="s">
+    <row r="97" spans="3:6">
+      <c r="D97" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D98" t="s">
+    <row r="98" spans="3:6">
+      <c r="D98" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="99" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D99">
+    <row r="99" spans="3:6">
+      <c r="D99" s="1">
         <f>SQRT(D92)</f>
         <v>0.88091046391561456</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="1">
         <f>SQRT(E92)</f>
         <v>1.3141233360537989</v>
       </c>
     </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D101" t="s">
+    <row r="101" spans="3:6">
+      <c r="D101" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="102" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D102">
+    <row r="102" spans="3:6">
+      <c r="D102" s="1">
         <f>SQRT(D95)</f>
         <v>0.83460506175975913</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="1">
         <f>SQRT(E95)</f>
         <v>1.414137303720882</v>
       </c>
     </row>
-    <row r="104" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C104" t="s">
+    <row r="104" spans="3:6">
+      <c r="C104" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="105" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D105" t="s">
+    <row r="105" spans="3:6">
+      <c r="D105" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="106" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D106">
+    <row r="106" spans="3:6">
+      <c r="D106" s="1">
         <f>(D68-0)/F68*SQRT(K4)</f>
         <v>4.7293120040390155</v>
       </c>
     </row>
-    <row r="108" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D108" t="s">
+    <row r="108" spans="3:6">
+      <c r="D108" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="109" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D109">
+    <row r="109" spans="3:6">
+      <c r="D109" s="1">
         <f>TINV(E109,F109)</f>
         <v>2.0095752371292388</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="1">
         <v>0.05</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="111" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D111" t="s">
+    <row r="111" spans="3:6">
+      <c r="D111" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="112" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D112">
+    <row r="112" spans="3:6">
+      <c r="D112" s="1">
         <f>-D109</f>
         <v>-2.0095752371292388</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="1">
         <f>D109</f>
         <v>2.0095752371292388</v>
       </c>
     </row>
-    <row r="114" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D114" t="s">
+    <row r="114" spans="3:8">
+      <c r="D114" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="116" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C116" t="s">
+    <row r="116" spans="3:8">
+      <c r="C116" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="117" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D117" t="s">
+    <row r="117" spans="3:8">
+      <c r="D117" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="118" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:8">
       <c r="D118" s="2">
         <v>1.38</v>
       </c>
@@ -9821,7 +10229,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="119" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:8">
       <c r="D119" s="2">
         <v>0.72</v>
       </c>
@@ -9829,95 +10237,97 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="120" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:8">
       <c r="D120" s="2">
         <v>0.18</v>
       </c>
       <c r="E120" s="2">
         <v>-2.2799999999999998</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G120" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H120" t="s">
+      <c r="H120" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="121" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:8">
       <c r="D121" s="2">
         <v>-0.11</v>
       </c>
       <c r="E121" s="2">
         <v>2.88</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G121">
+      <c r="G121" s="1">
+        <f>COUNT(D118:D137)</f>
         <v>20</v>
       </c>
-      <c r="H121">
+      <c r="H121" s="1">
+        <f>COUNT(E118:E147)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="122" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:8">
       <c r="D122" s="2">
         <v>1.05</v>
       </c>
       <c r="E122" s="2">
         <v>0.78</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G122" s="5">
+      <c r="G122" s="1">
         <f>AVERAGE(D118:D137)</f>
         <v>0.76849999999999996</v>
       </c>
-      <c r="H122" s="5">
+      <c r="H122" s="1">
         <f>AVERAGE(E118:E147)</f>
         <v>0.72733333333333339</v>
       </c>
     </row>
-    <row r="123" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:8">
       <c r="D123" s="2">
         <v>1.45</v>
       </c>
       <c r="E123" s="2">
         <v>0.78</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G123">
+      <c r="G123" s="1">
         <f>_xlfn.VAR.P(D118:D137)</f>
         <v>0.99937275000000003</v>
       </c>
-      <c r="H123">
+      <c r="H123" s="1">
         <f>_xlfn.VAR.P(E118:E147)</f>
         <v>1.3531195555555553</v>
       </c>
     </row>
-    <row r="124" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:8">
       <c r="D124" s="2">
         <v>-0.28000000000000003</v>
       </c>
       <c r="E124" s="2">
         <v>-0.65</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G124">
+      <c r="G124" s="1">
         <f>_xlfn.STDEV.P(D118:D137)</f>
         <v>0.99968632580424943</v>
       </c>
-      <c r="H124">
+      <c r="H124" s="1">
         <f>_xlfn.STDEV.P(E118:E147)</f>
         <v>1.163236672201988</v>
       </c>
     </row>
-    <row r="125" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:8">
       <c r="D125" s="2">
         <v>2.4900000000000002</v>
       </c>
@@ -9925,33 +10335,33 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="126" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:8">
       <c r="D126" s="2">
         <v>-0.54</v>
       </c>
       <c r="E126" s="2">
         <v>0.49</v>
       </c>
-      <c r="F126" s="10" t="s">
+      <c r="F126" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="127" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:8">
       <c r="D127" s="2">
         <v>1.88</v>
       </c>
       <c r="E127" s="2">
         <v>0.86</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G127">
+      <c r="G127" s="1">
         <f>G123/H123</f>
         <v>0.73856943822653121</v>
       </c>
     </row>
-    <row r="128" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:8">
       <c r="D128" s="2">
         <v>2.37</v>
       </c>
@@ -9959,50 +10369,50 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="129" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="4:9">
       <c r="D129" s="2">
         <v>0.95</v>
       </c>
       <c r="E129" s="2">
         <v>0.47</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G129" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H129" t="s">
+      <c r="H129" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I129" t="s">
+      <c r="I129" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="130" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="4:9">
       <c r="D130" s="2">
         <v>-0.55000000000000004</v>
       </c>
       <c r="E130" s="2">
         <v>0.51</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="1">
         <f>_xlfn.F.INV(G130/2,H130,I130)</f>
         <v>0.41632966758773404</v>
       </c>
-      <c r="G130">
+      <c r="G130" s="1">
         <v>0.05</v>
       </c>
-      <c r="H130">
+      <c r="H130" s="1">
         <f>G121-1</f>
         <v>19</v>
       </c>
-      <c r="I130">
+      <c r="I130" s="1">
         <f>H121-1</f>
         <v>29</v>
       </c>
     </row>
-    <row r="131" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="4:9">
       <c r="D131" s="2">
         <v>2.0499999999999998</v>
       </c>
@@ -10010,50 +10420,50 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="132" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="4:9">
       <c r="D132" s="2">
         <v>1.29</v>
       </c>
       <c r="E132" s="2">
         <v>3.21</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G132" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H132" t="s">
+      <c r="H132" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I132" t="s">
+      <c r="I132" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="133" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="4:9">
       <c r="D133" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E133" s="2">
         <v>0.6</v>
       </c>
-      <c r="F133">
+      <c r="F133" s="1">
         <f>_xlfn.F.INV(1-G133/2,H133,I133)</f>
         <v>2.2312738331007593</v>
       </c>
-      <c r="G133">
+      <c r="G133" s="1">
         <v>0.05</v>
       </c>
-      <c r="H133">
+      <c r="H133" s="1">
         <f>G121-1</f>
         <v>19</v>
       </c>
-      <c r="I133">
+      <c r="I133" s="1">
         <f>H121-1</f>
         <v>29</v>
       </c>
     </row>
-    <row r="134" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="4:9">
       <c r="D134" s="2">
         <v>1.59</v>
       </c>
@@ -10061,37 +10471,37 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="135" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="4:9">
       <c r="D135" s="2">
         <v>-0.2</v>
       </c>
       <c r="E135" s="2">
         <v>1.1399999999999999</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G135" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="136" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="4:9">
       <c r="D136" s="2">
         <v>-0.79</v>
       </c>
       <c r="E136" s="2">
         <v>2.82</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="1">
         <f>F130</f>
         <v>0.41632966758773404</v>
       </c>
-      <c r="G136">
+      <c r="G136" s="1">
         <f>F133</f>
         <v>2.2312738331007593</v>
       </c>
     </row>
-    <row r="137" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="4:9">
       <c r="D137" s="2">
         <v>0.37</v>
       </c>
@@ -10099,112 +10509,112 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="138" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="4:9">
       <c r="E138" s="2">
         <v>1.32</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F138" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="139" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="4:9">
       <c r="E139" s="2">
         <v>0.66</v>
       </c>
     </row>
-    <row r="140" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="4:9">
       <c r="E140" s="2">
         <v>-0.53</v>
       </c>
-      <c r="F140" s="10" t="s">
+      <c r="F140" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="141" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="4:9">
       <c r="E141" s="2">
         <v>-0.76</v>
       </c>
     </row>
-    <row r="142" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="4:9">
       <c r="E142" s="2">
         <v>2.8</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F142" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G142">
+      <c r="G142" s="1">
         <f>(G122-H122-0)/SQRT((G121-1)*G123+(H121-1)*H123)*SQRT(G121*H121*(G121+H121-2)/(G121+H121))</f>
         <v>0.1294759061703781</v>
       </c>
     </row>
-    <row r="143" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="4:9">
       <c r="E143" s="2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="144" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="4:9">
       <c r="E144" s="2">
         <v>0.7</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F144" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G144" t="s">
+      <c r="G144" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H144" t="s">
+      <c r="H144" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="145" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="5:8">
       <c r="E145" s="2">
         <v>-0.68</v>
       </c>
-      <c r="F145">
+      <c r="F145" s="1">
         <f>_xlfn.T.INV(1-G145/2,H145)</f>
         <v>2.0106347576242314</v>
       </c>
-      <c r="G145">
+      <c r="G145" s="1">
         <v>0.05</v>
       </c>
-      <c r="H145">
+      <c r="H145" s="1">
         <f>G121+H121-2</f>
         <v>48</v>
       </c>
     </row>
-    <row r="146" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="5:8">
       <c r="E146" s="2">
         <v>0.19</v>
       </c>
     </row>
-    <row r="147" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="5:8">
       <c r="E147" s="2">
         <v>-0.48</v>
       </c>
-      <c r="F147" t="s">
+      <c r="F147" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G147" t="s">
+      <c r="G147" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="148" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="5:8">
       <c r="E148" s="9"/>
-      <c r="F148">
+      <c r="F148" s="1">
         <f>-F145</f>
         <v>-2.0106347576242314</v>
       </c>
-      <c r="G148">
+      <c r="G148" s="1">
         <f>F145</f>
         <v>2.0106347576242314</v>
       </c>
     </row>
-    <row r="149" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="5:8">
       <c r="E149" s="9"/>
     </row>
-    <row r="150" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="5:8">
       <c r="E150" s="9"/>
-      <c r="F150" t="s">
+      <c r="F150" s="1" t="s">
         <v>76</v>
       </c>
     </row>
@@ -10219,1103 +10629,1559 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDDE510-A1CE-BE4A-9AC5-4C4E12E5BBAD}">
-  <dimension ref="A1:R50"/>
+  <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.83203125" style="11"/>
-    <col min="5" max="5" width="22.33203125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="11"/>
-    <col min="7" max="7" width="14.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="11"/>
-    <col min="10" max="11" width="8.6640625" style="11" customWidth="1"/>
-    <col min="12" max="12" width="9" style="11" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" style="11" customWidth="1"/>
-    <col min="14" max="14" width="12.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.83203125" style="11"/>
+    <col min="1" max="1" width="14.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="12"/>
+    <col min="7" max="7" width="14.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="12"/>
+    <col min="10" max="11" width="8.6640625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="9" style="12" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" style="12" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34">
+    <row r="1" spans="1:15" ht="25" thickBot="1">
+      <c r="A1" s="10">
         <v>6</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="G1" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="B1" s="11"/>
+      <c r="G1" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="16">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="G2" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="L2" s="39"/>
-      <c r="M2" s="32" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="B2" s="14"/>
+      <c r="G2" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="17"/>
+      <c r="K2" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="L2" s="17"/>
+      <c r="M2" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="17" thickBot="1">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="J3" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="K3" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="L3" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="M3" s="33"/>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40">
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="M3" s="24"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A4" s="2">
         <v>150</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="36">
         <v>50.439765218123881</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="26">
         <f>(ABS(B30) * SQRT(B24 - 2)) / SQRT(1 - POWER(B30, 2))</f>
         <v>13.270020456314787</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="27">
+        <f>A4</f>
         <v>150</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="28">
         <f t="shared" ref="H4:H23" si="0">$E$14 + $E$13 * G4</f>
         <v>49.102002736813347</v>
       </c>
-      <c r="I4" s="24">
-        <f t="shared" ref="I4:I23" si="1">H4 - $E$5 * SQRT($E$16) * SQRT(M4)</f>
+      <c r="I4" s="29">
+        <f>H4 - $E$5 * SQRT($E$16) * SQRT(M4)</f>
         <v>44.901265229211752</v>
       </c>
-      <c r="J4" s="24">
-        <f t="shared" ref="J4:J23" si="2">H4 + $E$5 * SQRT($E$16) * SQRT(M4)</f>
+      <c r="J4" s="29">
+        <f t="shared" ref="J4:J23" si="1">H4 + $E$5 * SQRT($E$16) * SQRT(M4)</f>
         <v>53.302740244414942</v>
       </c>
-      <c r="K4" s="24">
-        <f t="shared" ref="K4:K23" si="3">H4 - $E$5 * SQRT($E$16) * SQRT(M4 + 1)</f>
+      <c r="K4" s="29">
+        <f t="shared" ref="K4:K23" si="2">H4 - $E$5 * SQRT($E$16) * SQRT(M4 + 1)</f>
         <v>36.119538409109531</v>
       </c>
-      <c r="L4" s="24">
-        <f t="shared" ref="L4:L23" si="4">H4 + $E$5 * SQRT($E$16) * SQRT(M4 + 1)</f>
+      <c r="L4" s="29">
+        <f t="shared" ref="L4:L23" si="3">H4 + $E$5 * SQRT($E$16) * SQRT(M4 + 1)</f>
         <v>62.084467064517163</v>
       </c>
-      <c r="M4" s="17">
-        <f t="shared" ref="M4:M23" si="5">1 / $B$24 + ($B$24 * (G4 - $B$25)^2) / $E$10</f>
+      <c r="M4" s="30">
+        <f>1 / $B$24 + ($B$24 * (G4 - $B$25)^2) / $E$10</f>
         <v>0.1169410730585889</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40">
+    <row r="5" spans="1:15" ht="16" thickBot="1">
+      <c r="A5" s="2">
         <v>177</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="36">
         <v>73.187912440909315</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="D5" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="26">
         <v>2.1009220370000001</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="27">
+        <f t="shared" ref="G5:G23" si="4">A5</f>
         <v>177</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="31">
         <f t="shared" si="0"/>
         <v>76.339091472360252</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="32">
+        <f t="shared" ref="I4:I23" si="5">H5 - $E$5 * SQRT($E$16) * SQRT(M5)</f>
+        <v>73.367433668989747</v>
+      </c>
+      <c r="J5" s="32">
         <f t="shared" si="1"/>
-        <v>73.367433668989747</v>
-      </c>
-      <c r="J5" s="21">
+        <v>79.310749275730757</v>
+      </c>
+      <c r="K5" s="32">
         <f t="shared" si="2"/>
-        <v>79.310749275730757</v>
-      </c>
-      <c r="K5" s="21">
+        <v>63.700700177869322</v>
+      </c>
+      <c r="L5" s="32">
         <f t="shared" si="3"/>
-        <v>63.700700177869322</v>
-      </c>
-      <c r="L5" s="21">
+        <v>88.977482766851182</v>
+      </c>
+      <c r="M5" s="30">
+        <f t="shared" ref="M4:M23" si="6">1 / $B$24 + ($B$24 * (G5 - $B$25)^2) / $E$10</f>
+        <v>5.85212481828324E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="16" thickBot="1">
+      <c r="A6" s="2">
+        <v>154</v>
+      </c>
+      <c r="B6" s="36">
+        <v>53.223118804124248</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="27">
         <f t="shared" si="4"/>
-        <v>88.977482766851182</v>
-      </c>
-      <c r="M5" s="17">
-        <f t="shared" si="5"/>
-        <v>5.85212481828324E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40">
         <v>154</v>
       </c>
-      <c r="B6" s="40">
-        <v>53.223118804124248</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" s="20">
-        <v>154</v>
-      </c>
-      <c r="H6" s="22">
+      <c r="H6" s="31">
         <f t="shared" si="0"/>
         <v>53.137126993931389</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="32">
+        <f t="shared" si="5"/>
+        <v>49.396338382306183</v>
+      </c>
+      <c r="J6" s="32">
         <f t="shared" si="1"/>
-        <v>49.396338382306183</v>
-      </c>
-      <c r="J6" s="21">
+        <v>56.877915605556595</v>
+      </c>
+      <c r="K6" s="32">
         <f t="shared" si="2"/>
-        <v>56.877915605556595</v>
-      </c>
-      <c r="K6" s="21">
+        <v>40.296111307888637</v>
+      </c>
+      <c r="L6" s="32">
         <f t="shared" si="3"/>
-        <v>40.296111307888637</v>
-      </c>
-      <c r="L6" s="21">
+        <v>65.978142679974141</v>
+      </c>
+      <c r="M6" s="30">
+        <f t="shared" si="6"/>
+        <v>9.273471043645834E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="16" thickBot="1">
+      <c r="A7" s="2">
+        <v>152</v>
+      </c>
+      <c r="B7" s="36">
+        <v>43.763103903511222</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="27">
         <f t="shared" si="4"/>
-        <v>65.978142679974141</v>
-      </c>
-      <c r="M6" s="17">
-        <f t="shared" si="5"/>
-        <v>9.273471043645834E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40">
         <v>152</v>
       </c>
-      <c r="B7" s="40">
-        <v>43.763103903511222</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="20">
-        <v>152</v>
-      </c>
-      <c r="H7" s="22">
+      <c r="H7" s="31">
         <f t="shared" si="0"/>
         <v>51.119564865372354</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="32">
+        <f t="shared" si="5"/>
+        <v>47.154994661299938</v>
+      </c>
+      <c r="J7" s="32">
         <f t="shared" si="1"/>
-        <v>47.154994661299938</v>
-      </c>
-      <c r="J7" s="21">
+        <v>55.08413506944477</v>
+      </c>
+      <c r="K7" s="32">
         <f t="shared" si="2"/>
-        <v>55.08413506944477</v>
-      </c>
-      <c r="K7" s="21">
+        <v>38.211582787783698</v>
+      </c>
+      <c r="L7" s="32">
         <f t="shared" si="3"/>
-        <v>38.211582787783698</v>
-      </c>
-      <c r="L7" s="21">
+        <v>64.02754694296101</v>
+      </c>
+      <c r="M7" s="30">
+        <f t="shared" si="6"/>
+        <v>0.10416173636701717</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="16" thickBot="1">
+      <c r="A8" s="2">
+        <v>169</v>
+      </c>
+      <c r="B8" s="36">
+        <v>68.508636005000128</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
+      <c r="G8" s="27">
         <f t="shared" si="4"/>
-        <v>64.02754694296101</v>
-      </c>
-      <c r="M7" s="17">
-        <f t="shared" si="5"/>
-        <v>0.10416173636701717</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40">
         <v>169</v>
       </c>
-      <c r="B8" s="40">
-        <v>68.508636005000128</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="12"/>
-      <c r="G8" s="20">
-        <v>169</v>
-      </c>
-      <c r="H8" s="22">
+      <c r="H8" s="31">
         <f t="shared" si="0"/>
         <v>68.268842958124139</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="32">
+        <f t="shared" si="5"/>
+        <v>65.518284756408605</v>
+      </c>
+      <c r="J8" s="32">
         <f t="shared" si="1"/>
-        <v>65.518284756408605</v>
-      </c>
-      <c r="J8" s="21">
+        <v>71.019401159839674</v>
+      </c>
+      <c r="K8" s="32">
         <f t="shared" si="2"/>
-        <v>71.019401159839674</v>
-      </c>
-      <c r="K8" s="21">
+        <v>55.680604207871745</v>
+      </c>
+      <c r="L8" s="32">
         <f t="shared" si="3"/>
-        <v>55.680604207871745</v>
-      </c>
-      <c r="L8" s="21">
+        <v>80.857081708376526</v>
+      </c>
+      <c r="M8" s="30">
+        <f t="shared" si="6"/>
+        <v>5.0136921464552557E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="16" thickBot="1">
+      <c r="A9" s="2">
+        <v>200</v>
+      </c>
+      <c r="B9" s="36">
+        <v>94.464449979056482</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="G9" s="27">
         <f t="shared" si="4"/>
-        <v>80.857081708376526</v>
-      </c>
-      <c r="M8" s="17">
-        <f t="shared" si="5"/>
-        <v>5.0136921464552557E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40">
         <v>200</v>
       </c>
-      <c r="B9" s="40">
-        <v>94.464449979056482</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="G9" s="20">
-        <v>200</v>
-      </c>
-      <c r="H9" s="22">
+      <c r="H9" s="31">
         <f t="shared" si="0"/>
         <v>99.541055950789143</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="32">
+        <f t="shared" si="5"/>
+        <v>94.004351193589258</v>
+      </c>
+      <c r="J9" s="32">
         <f t="shared" si="1"/>
-        <v>94.004351193589258</v>
-      </c>
-      <c r="J9" s="21">
+        <v>105.07776070798903</v>
+      </c>
+      <c r="K9" s="32">
         <f t="shared" si="2"/>
-        <v>105.07776070798903</v>
-      </c>
-      <c r="K9" s="21">
+        <v>86.066884956596923</v>
+      </c>
+      <c r="L9" s="32">
         <f t="shared" si="3"/>
-        <v>86.066884956596923</v>
-      </c>
-      <c r="L9" s="21">
-        <f t="shared" si="4"/>
         <v>113.01522694498136</v>
       </c>
-      <c r="M9" s="17">
-        <f t="shared" si="5"/>
+      <c r="M9" s="30">
+        <f t="shared" si="6"/>
         <v>0.20315088407315995</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40">
+    <row r="10" spans="1:15" ht="16" thickBot="1">
+      <c r="A10" s="2">
         <v>196</v>
       </c>
-      <c r="B10" s="40">
+      <c r="B10" s="36">
         <v>99.424545369522093</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="12">
+      <c r="D10" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="26">
         <f>B24 * B27 - POWER(B31,2)</f>
         <v>118316</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="27">
+        <f t="shared" si="4"/>
         <v>196</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="31">
         <f t="shared" si="0"/>
         <v>95.505931693671073</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="32">
+        <f t="shared" si="5"/>
+        <v>90.513840071535796</v>
+      </c>
+      <c r="J10" s="32">
         <f t="shared" si="1"/>
-        <v>90.513840071535796</v>
-      </c>
-      <c r="J10" s="21">
+        <v>100.49802331580635</v>
+      </c>
+      <c r="K10" s="32">
         <f t="shared" si="2"/>
-        <v>100.49802331580635</v>
-      </c>
-      <c r="K10" s="21">
+        <v>82.246249828101128</v>
+      </c>
+      <c r="L10" s="32">
         <f t="shared" si="3"/>
-        <v>82.246249828101128</v>
-      </c>
-      <c r="L10" s="21">
+        <v>108.76561355924102</v>
+      </c>
+      <c r="M10" s="30">
+        <f t="shared" si="6"/>
+        <v>0.16515095168869801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="16" thickBot="1">
+      <c r="A11" s="2">
+        <v>181</v>
+      </c>
+      <c r="B11" s="36">
+        <v>73.703292268249257</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="G11" s="27">
         <f t="shared" si="4"/>
-        <v>108.76561355924102</v>
-      </c>
-      <c r="M10" s="17">
-        <f t="shared" si="5"/>
-        <v>0.16515095168869801</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40">
         <v>181</v>
       </c>
-      <c r="B11" s="40">
-        <v>73.703292268249257</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="12"/>
-      <c r="G11" s="20">
-        <v>181</v>
-      </c>
-      <c r="H11" s="22">
+      <c r="H11" s="31">
         <f t="shared" si="0"/>
         <v>80.374215729478323</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="32">
+        <f t="shared" si="5"/>
+        <v>77.105009805775197</v>
+      </c>
+      <c r="J11" s="32">
         <f t="shared" si="1"/>
-        <v>77.105009805775197</v>
-      </c>
-      <c r="J11" s="21">
+        <v>83.643421653181449</v>
+      </c>
+      <c r="K11" s="32">
         <f t="shared" si="2"/>
-        <v>83.643421653181449</v>
-      </c>
-      <c r="K11" s="21">
+        <v>67.662571784499889</v>
+      </c>
+      <c r="L11" s="32">
         <f t="shared" si="3"/>
-        <v>67.662571784499889</v>
-      </c>
-      <c r="L11" s="21">
+        <v>93.085859674456756</v>
+      </c>
+      <c r="M11" s="30">
+        <f t="shared" si="6"/>
+        <v>7.0827276108049619E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="16" thickBot="1">
+      <c r="A12" s="2">
+        <v>152</v>
+      </c>
+      <c r="B12" s="36">
+        <v>49.888221905129662</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="G12" s="27">
         <f t="shared" si="4"/>
-        <v>93.085859674456756</v>
-      </c>
-      <c r="M11" s="17">
-        <f t="shared" si="5"/>
-        <v>7.0827276108049619E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40">
         <v>152</v>
       </c>
-      <c r="B12" s="40">
-        <v>49.888221905129662</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="G12" s="20">
-        <v>152</v>
-      </c>
-      <c r="H12" s="22">
+      <c r="H12" s="31">
         <f t="shared" si="0"/>
         <v>51.119564865372354</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="32">
+        <f t="shared" si="5"/>
+        <v>47.154994661299938</v>
+      </c>
+      <c r="J12" s="32">
         <f t="shared" si="1"/>
-        <v>47.154994661299938</v>
-      </c>
-      <c r="J12" s="21">
+        <v>55.08413506944477</v>
+      </c>
+      <c r="K12" s="32">
         <f t="shared" si="2"/>
-        <v>55.08413506944477</v>
-      </c>
-      <c r="K12" s="21">
+        <v>38.211582787783698</v>
+      </c>
+      <c r="L12" s="32">
         <f t="shared" si="3"/>
-        <v>38.211582787783698</v>
-      </c>
-      <c r="L12" s="21">
-        <f t="shared" si="4"/>
         <v>64.02754694296101</v>
       </c>
-      <c r="M12" s="17">
-        <f t="shared" si="5"/>
+      <c r="M12" s="30">
+        <f t="shared" si="6"/>
         <v>0.10416173636701717</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40">
+    <row r="13" spans="1:15" ht="16" thickBot="1">
+      <c r="A13" s="2">
         <v>172</v>
       </c>
-      <c r="B13" s="40">
+      <c r="B13" s="36">
         <v>73.995890168108957</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" s="12">
+      <c r="D13" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="26">
         <f>(1 / E10) * (B24 * B29 - B31 * B32)</f>
         <v>1.0087810642795159</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="27">
+        <f t="shared" si="4"/>
         <v>172</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="31">
         <f t="shared" si="0"/>
         <v>71.295186150962678</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="32">
+        <f t="shared" si="5"/>
+        <v>68.527985764580478</v>
+      </c>
+      <c r="J13" s="32">
         <f t="shared" si="1"/>
-        <v>68.527985764580478</v>
-      </c>
-      <c r="J13" s="21">
+        <v>74.062386537344878</v>
+      </c>
+      <c r="K13" s="32">
         <f t="shared" si="2"/>
-        <v>74.062386537344878</v>
-      </c>
-      <c r="K13" s="21">
+        <v>58.703300573705988</v>
+      </c>
+      <c r="L13" s="32">
         <f t="shared" si="3"/>
-        <v>58.703300573705988</v>
-      </c>
-      <c r="L13" s="21">
-        <f t="shared" si="4"/>
         <v>83.887071728219368</v>
       </c>
-      <c r="M13" s="17">
-        <f t="shared" si="5"/>
+      <c r="M13" s="30">
+        <f t="shared" si="6"/>
         <v>5.0745461307008348E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40">
+    <row r="14" spans="1:15" ht="16" thickBot="1">
+      <c r="A14" s="2">
         <v>152</v>
       </c>
-      <c r="B14" s="40">
+      <c r="B14" s="36">
         <v>58.037306645999138</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="12">
+      <c r="D14" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="26">
         <f>B26 - E13 * B25</f>
         <v>-102.21515690511404</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="27">
+        <f t="shared" si="4"/>
         <v>152</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="31">
         <f t="shared" si="0"/>
         <v>51.119564865372354</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="32">
+        <f t="shared" si="5"/>
+        <v>47.154994661299938</v>
+      </c>
+      <c r="J14" s="32">
         <f t="shared" si="1"/>
-        <v>47.154994661299938</v>
-      </c>
-      <c r="J14" s="21">
+        <v>55.08413506944477</v>
+      </c>
+      <c r="K14" s="32">
         <f t="shared" si="2"/>
-        <v>55.08413506944477</v>
-      </c>
-      <c r="K14" s="21">
+        <v>38.211582787783698</v>
+      </c>
+      <c r="L14" s="32">
         <f t="shared" si="3"/>
-        <v>38.211582787783698</v>
-      </c>
-      <c r="L14" s="21">
-        <f t="shared" si="4"/>
         <v>64.02754694296101</v>
       </c>
-      <c r="M14" s="17">
-        <f t="shared" si="5"/>
+      <c r="M14" s="30">
+        <f t="shared" si="6"/>
         <v>0.10416173636701717</v>
       </c>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-    </row>
-    <row r="15" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40">
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+    </row>
+    <row r="15" spans="1:15" ht="16" thickBot="1">
+      <c r="A15" s="2">
         <v>150</v>
       </c>
-      <c r="B15" s="40">
+      <c r="B15" s="36">
         <v>46.007799123494053</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" s="12">
+      <c r="D15" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="26">
         <f>B28 - E14 * B32 - E13 * B29</f>
         <v>615.37046259760973</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="27">
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="31">
         <f t="shared" si="0"/>
         <v>49.102002736813347</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="32">
+        <f t="shared" si="5"/>
+        <v>44.901265229211752</v>
+      </c>
+      <c r="J15" s="32">
         <f t="shared" si="1"/>
-        <v>44.901265229211752</v>
-      </c>
-      <c r="J15" s="21">
+        <v>53.302740244414942</v>
+      </c>
+      <c r="K15" s="32">
         <f t="shared" si="2"/>
-        <v>53.302740244414942</v>
-      </c>
-      <c r="K15" s="21">
+        <v>36.119538409109531</v>
+      </c>
+      <c r="L15" s="32">
         <f t="shared" si="3"/>
-        <v>36.119538409109531</v>
-      </c>
-      <c r="L15" s="21">
-        <f t="shared" si="4"/>
         <v>62.084467064517163</v>
       </c>
-      <c r="M15" s="17">
-        <f t="shared" si="5"/>
+      <c r="M15" s="30">
+        <f t="shared" si="6"/>
         <v>0.1169410730585889</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40">
+    <row r="16" spans="1:15" ht="16" thickBot="1">
+      <c r="A16" s="2">
         <v>178</v>
       </c>
-      <c r="B16" s="40">
+      <c r="B16" s="36">
         <v>77.631893722862657</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="12">
+      <c r="D16" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="26">
         <f>E15 / (20 - 2)</f>
         <v>34.187247922089426</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="27">
+        <f t="shared" si="4"/>
         <v>178</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="31">
         <f t="shared" si="0"/>
         <v>77.347872536639784</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="32">
+        <f t="shared" si="5"/>
+        <v>74.311679780296856</v>
+      </c>
+      <c r="J16" s="32">
         <f t="shared" si="1"/>
-        <v>74.311679780296856</v>
-      </c>
-      <c r="J16" s="21">
+        <v>80.384065292982712</v>
+      </c>
+      <c r="K16" s="32">
         <f t="shared" si="2"/>
-        <v>80.384065292982712</v>
-      </c>
-      <c r="K16" s="21">
+        <v>64.694151705753697</v>
+      </c>
+      <c r="L16" s="32">
         <f t="shared" si="3"/>
-        <v>64.694151705753697</v>
-      </c>
-      <c r="L16" s="21">
+        <v>90.001593367525871</v>
+      </c>
+      <c r="M16" s="30">
+        <f t="shared" si="6"/>
+        <v>6.1090638628756876E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="16" thickBot="1">
+      <c r="A17" s="2">
+        <v>154</v>
+      </c>
+      <c r="B17" s="36">
+        <v>57.209055967964801</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="G17" s="27">
         <f t="shared" si="4"/>
-        <v>90.001593367525871</v>
-      </c>
-      <c r="M16" s="17">
-        <f t="shared" si="5"/>
-        <v>6.1090638628756876E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40">
         <v>154</v>
       </c>
-      <c r="B17" s="40">
-        <v>57.209055967964801</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="12"/>
-      <c r="G17" s="20">
-        <v>154</v>
-      </c>
-      <c r="H17" s="22">
+      <c r="H17" s="31">
         <f t="shared" si="0"/>
         <v>53.137126993931389</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="32">
+        <f t="shared" si="5"/>
+        <v>49.396338382306183</v>
+      </c>
+      <c r="J17" s="32">
         <f t="shared" si="1"/>
-        <v>49.396338382306183</v>
-      </c>
-      <c r="J17" s="21">
+        <v>56.877915605556595</v>
+      </c>
+      <c r="K17" s="32">
         <f t="shared" si="2"/>
-        <v>56.877915605556595</v>
-      </c>
-      <c r="K17" s="21">
+        <v>40.296111307888637</v>
+      </c>
+      <c r="L17" s="32">
         <f t="shared" si="3"/>
-        <v>40.296111307888637</v>
-      </c>
-      <c r="L17" s="21">
+        <v>65.978142679974141</v>
+      </c>
+      <c r="M17" s="30">
+        <f t="shared" si="6"/>
+        <v>9.273471043645834E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="16" thickBot="1">
+      <c r="A18" s="2">
+        <v>190</v>
+      </c>
+      <c r="B18" s="36">
+        <v>90.179853518718915</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="G18" s="27">
         <f t="shared" si="4"/>
-        <v>65.978142679974141</v>
-      </c>
-      <c r="M17" s="17">
-        <f t="shared" si="5"/>
-        <v>9.273471043645834E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40">
         <v>190</v>
       </c>
-      <c r="B18" s="40">
-        <v>90.179853518718915</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="G18" s="20">
-        <v>190</v>
-      </c>
-      <c r="H18" s="22">
+      <c r="H18" s="31">
         <f t="shared" si="0"/>
         <v>89.453245307993967</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="32">
+        <f t="shared" si="5"/>
+        <v>85.228288876695657</v>
+      </c>
+      <c r="J18" s="32">
         <f t="shared" si="1"/>
-        <v>85.228288876695657</v>
-      </c>
-      <c r="J18" s="21">
+        <v>93.678201739292277</v>
+      </c>
+      <c r="K18" s="32">
         <f t="shared" si="2"/>
-        <v>93.678201739292277</v>
-      </c>
-      <c r="K18" s="21">
+        <v>76.462924247346535</v>
+      </c>
+      <c r="L18" s="32">
         <f t="shared" si="3"/>
-        <v>76.462924247346535</v>
-      </c>
-      <c r="L18" s="21">
+        <v>102.4435663686414</v>
+      </c>
+      <c r="M18" s="30">
+        <f t="shared" si="6"/>
+        <v>0.11829338381960171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="16" thickBot="1">
+      <c r="A19" s="2">
+        <v>195</v>
+      </c>
+      <c r="B19" s="36">
+        <v>98.141602375765785</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="26">
+        <v>-100</v>
+      </c>
+      <c r="G19" s="27">
         <f t="shared" si="4"/>
-        <v>102.4435663686414</v>
-      </c>
-      <c r="M18" s="17">
-        <f t="shared" si="5"/>
-        <v>0.11829338381960171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40">
         <v>195</v>
       </c>
-      <c r="B19" s="40">
-        <v>98.141602375765785</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" s="12">
-        <v>-100</v>
-      </c>
-      <c r="G19" s="20">
-        <v>195</v>
-      </c>
-      <c r="H19" s="22">
+      <c r="H19" s="31">
         <f t="shared" si="0"/>
         <v>94.497150629391541</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="32">
+        <f t="shared" si="5"/>
+        <v>89.637625257838749</v>
+      </c>
+      <c r="J19" s="32">
         <f t="shared" si="1"/>
-        <v>89.637625257838749</v>
-      </c>
-      <c r="J19" s="21">
+        <v>99.356676000944333</v>
+      </c>
+      <c r="K19" s="32">
         <f t="shared" si="2"/>
-        <v>99.356676000944333</v>
-      </c>
-      <c r="K19" s="21">
+        <v>81.286807286045146</v>
+      </c>
+      <c r="L19" s="32">
         <f t="shared" si="3"/>
-        <v>81.286807286045146</v>
-      </c>
-      <c r="L19" s="21">
+        <v>107.70749397273794</v>
+      </c>
+      <c r="M19" s="30">
+        <f t="shared" si="6"/>
+        <v>0.1564961628182156</v>
+      </c>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+    </row>
+    <row r="20" spans="1:18" ht="16" thickBot="1">
+      <c r="A20" s="2">
+        <v>182</v>
+      </c>
+      <c r="B20" s="36">
+        <v>79.708734856183924</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="26">
+        <v>-100</v>
+      </c>
+      <c r="G20" s="27">
         <f t="shared" si="4"/>
-        <v>107.70749397273794</v>
-      </c>
-      <c r="M19" s="17">
-        <f t="shared" si="5"/>
-        <v>0.1564961628182156</v>
-      </c>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-    </row>
-    <row r="20" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40">
         <v>182</v>
       </c>
-      <c r="B20" s="40">
-        <v>79.708734856183924</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="12">
-        <v>-100</v>
-      </c>
-      <c r="G20" s="20">
-        <v>182</v>
-      </c>
-      <c r="H20" s="22">
+      <c r="H20" s="31">
         <f t="shared" si="0"/>
         <v>81.382996793757854</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="32">
+        <f t="shared" si="5"/>
+        <v>78.024502344825407</v>
+      </c>
+      <c r="J20" s="32">
         <f t="shared" si="1"/>
-        <v>78.024502344825407</v>
-      </c>
-      <c r="J20" s="21">
+        <v>84.741491242690302</v>
+      </c>
+      <c r="K20" s="32">
         <f t="shared" si="2"/>
-        <v>84.741491242690302</v>
-      </c>
-      <c r="K20" s="21">
+        <v>68.64809713275379</v>
+      </c>
+      <c r="L20" s="32">
         <f t="shared" si="3"/>
-        <v>68.64809713275379</v>
-      </c>
-      <c r="L20" s="21">
-        <f t="shared" si="4"/>
         <v>94.117896454761919</v>
       </c>
-      <c r="M20" s="17">
-        <f t="shared" si="5"/>
+      <c r="M20" s="30">
+        <f t="shared" si="6"/>
         <v>7.4748977314986961E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40">
+    <row r="21" spans="1:18" ht="16" thickBot="1">
+      <c r="A21" s="2">
         <v>184</v>
       </c>
-      <c r="B21" s="40">
+      <c r="B21" s="36">
         <v>88.405863665316872</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="12">
+      <c r="D21" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="26">
         <f>B27 / E10</f>
         <v>4.9294769938131786</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="27">
+        <f t="shared" si="4"/>
         <v>184</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="31">
         <f t="shared" si="0"/>
         <v>83.400558922316861</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="32">
+        <f t="shared" si="5"/>
+        <v>79.848645905880844</v>
+      </c>
+      <c r="J21" s="32">
         <f t="shared" si="1"/>
-        <v>79.848645905880844</v>
-      </c>
-      <c r="J21" s="21">
+        <v>86.952471938752879</v>
+      </c>
+      <c r="K21" s="32">
         <f t="shared" si="2"/>
-        <v>86.952471938752879</v>
-      </c>
-      <c r="K21" s="21">
+        <v>70.613289061683631</v>
+      </c>
+      <c r="L21" s="32">
         <f t="shared" si="3"/>
-        <v>70.613289061683631</v>
-      </c>
-      <c r="L21" s="21">
-        <f t="shared" si="4"/>
         <v>96.187828782950092</v>
       </c>
-      <c r="M21" s="17">
-        <f t="shared" si="5"/>
+      <c r="M21" s="30">
+        <f t="shared" si="6"/>
         <v>8.3606612799621324E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="40">
+    <row r="22" spans="1:18" ht="16" thickBot="1">
+      <c r="A22" s="2">
         <v>156</v>
       </c>
-      <c r="B22" s="40">
+      <c r="B22" s="36">
         <v>41.795669608995773</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="26">
         <f>(E14 - E19) / (SQRT(E16) * SQRT(E21))</f>
         <v>-0.17063652613948144</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22" s="27">
+        <f t="shared" si="4"/>
         <v>156</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H22" s="31">
         <f t="shared" si="0"/>
         <v>55.154689122490424</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="32">
+        <f t="shared" si="5"/>
+        <v>51.622941225300004</v>
+      </c>
+      <c r="J22" s="32">
         <f t="shared" si="1"/>
-        <v>51.622941225300004</v>
-      </c>
-      <c r="J22" s="21">
+        <v>58.686437019680845</v>
+      </c>
+      <c r="K22" s="32">
         <f t="shared" si="2"/>
-        <v>58.686437019680845</v>
-      </c>
-      <c r="K22" s="21">
+        <v>42.373005836567543</v>
+      </c>
+      <c r="L22" s="32">
         <f t="shared" si="3"/>
-        <v>42.373005836567543</v>
-      </c>
-      <c r="L22" s="21">
+        <v>67.936372408413305</v>
+      </c>
+      <c r="M22" s="30">
+        <f t="shared" si="6"/>
+        <v>8.2659995266912367E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="16" thickBot="1">
+      <c r="A23" s="2">
+        <v>154</v>
+      </c>
+      <c r="B23" s="36">
+        <v>65.818202772477463</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="27">
         <f t="shared" si="4"/>
-        <v>67.936372408413305</v>
-      </c>
-      <c r="M22" s="17">
-        <f t="shared" si="5"/>
-        <v>8.2659995266912367E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40">
         <v>154</v>
       </c>
-      <c r="B23" s="40">
-        <v>65.818202772477463</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="20">
-        <v>154</v>
-      </c>
-      <c r="H23" s="19">
+      <c r="H23" s="34">
         <f t="shared" si="0"/>
         <v>53.137126993931389</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I23" s="35">
+        <f t="shared" si="5"/>
+        <v>49.396338382306183</v>
+      </c>
+      <c r="J23" s="35">
         <f t="shared" si="1"/>
-        <v>49.396338382306183</v>
-      </c>
-      <c r="J23" s="18">
+        <v>56.877915605556595</v>
+      </c>
+      <c r="K23" s="35">
         <f t="shared" si="2"/>
-        <v>56.877915605556595</v>
-      </c>
-      <c r="K23" s="18">
+        <v>40.296111307888637</v>
+      </c>
+      <c r="L23" s="35">
         <f t="shared" si="3"/>
-        <v>40.296111307888637</v>
-      </c>
-      <c r="L23" s="18">
-        <f t="shared" si="4"/>
         <v>65.978142679974141</v>
       </c>
-      <c r="M23" s="17">
-        <f t="shared" si="5"/>
+      <c r="M23" s="30">
+        <f t="shared" si="6"/>
         <v>9.273471043645834E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:18">
+      <c r="A24" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="26">
         <f>COUNT(A4:A23)</f>
         <v>20</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B25" s="14">
+      <c r="E24" s="25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="26">
         <f>AVERAGE(A4:A23)</f>
         <v>169.9</v>
       </c>
-      <c r="D25" s="13"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" s="14">
+      <c r="D25" s="25"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="26">
         <f>AVERAGE(B4:B23)</f>
         <v>69.176745915975715</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+    <row r="27" spans="1:18">
+      <c r="A27" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="26">
         <f>SUMSQ(A4:A23)</f>
         <v>583236</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="26">
         <v>1</v>
       </c>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="26">
         <f>SUMSQ(B4:B23)</f>
         <v>102343.96416331873</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="26">
         <f>B24 / E10</f>
         <v>1.690388451266101E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
+    <row r="29" spans="1:18">
+      <c r="A29" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="26">
         <f>SUMPRODUCT(A4:A23,B4:B23)</f>
         <v>241030.32964255026</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="26">
         <f>(E13 - E26) / (SQRT(E16) * SQRT(E28))</f>
         <v>0.11551059664328837</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
+    <row r="30" spans="1:18">
+      <c r="A30" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="26">
         <f>(B29 - B24 * B25 * B26) / SQRT((B27 - B24 * POWER(B25,2)) * (B28 - B24 * POWER(B26,2)))</f>
         <v>0.95250257944509309</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="26" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+    <row r="31" spans="1:18">
+      <c r="A31" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="26">
         <f>SUM(A4:A23)</f>
         <v>3398</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="25" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
+    <row r="32" spans="1:18">
+      <c r="A32" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="26">
         <f>SUM(B4:B23)</f>
         <v>1383.5349183195144</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
-      <c r="B33" s="12"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="12"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
-      <c r="B35" s="12"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="13"/>
-      <c r="B36" s="12"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="13"/>
-      <c r="B37" s="12"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="13"/>
-      <c r="B38" s="12"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
-      <c r="B39" s="12"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="13"/>
-      <c r="B40" s="12"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="12"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="13"/>
-      <c r="B42" s="12"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="13"/>
-      <c r="B43" s="12"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="13"/>
-      <c r="B44" s="12"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="13"/>
-      <c r="B45" s="12"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="13"/>
-      <c r="B46" s="12"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="13"/>
-      <c r="B47" s="12"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="12"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="13"/>
-      <c r="B49" s="12"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="13"/>
-      <c r="B50" s="12"/>
+    <row r="33" spans="1:5">
+      <c r="A33" s="25"/>
+      <c r="B33" s="26"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="25"/>
+      <c r="B34" s="26"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="25"/>
+      <c r="B35" s="26"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" s="40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="25">
+        <f>A4</f>
+        <v>150</v>
+      </c>
+      <c r="B37" s="38">
+        <f>B4</f>
+        <v>50.439765218123881</v>
+      </c>
+      <c r="C37" s="12">
+        <f>A37^2</f>
+        <v>22500</v>
+      </c>
+      <c r="D37" s="12">
+        <f>B37^2</f>
+        <v>2544.1699152594597</v>
+      </c>
+      <c r="E37" s="12">
+        <f>A37*B37</f>
+        <v>7565.9647827185818</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="25">
+        <f t="shared" ref="A38:B55" si="7">A5</f>
+        <v>177</v>
+      </c>
+      <c r="B38" s="38">
+        <f t="shared" si="7"/>
+        <v>73.187912440909315</v>
+      </c>
+      <c r="C38" s="12">
+        <f t="shared" ref="C38:C57" si="8">A38^2</f>
+        <v>31329</v>
+      </c>
+      <c r="D38" s="12">
+        <f t="shared" ref="D38:D56" si="9">B38^2</f>
+        <v>5356.4705274582084</v>
+      </c>
+      <c r="E38" s="12">
+        <f t="shared" ref="E38:E57" si="10">A38*B38</f>
+        <v>12954.260502040948</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="25">
+        <f t="shared" si="7"/>
+        <v>154</v>
+      </c>
+      <c r="B39" s="38">
+        <f t="shared" si="7"/>
+        <v>53.223118804124248</v>
+      </c>
+      <c r="C39" s="12">
+        <f t="shared" si="8"/>
+        <v>23716</v>
+      </c>
+      <c r="D39" s="12">
+        <f t="shared" si="9"/>
+        <v>2832.7003752379242</v>
+      </c>
+      <c r="E39" s="12">
+        <f t="shared" si="10"/>
+        <v>8196.3602958351348</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="25">
+        <f t="shared" si="7"/>
+        <v>152</v>
+      </c>
+      <c r="B40" s="38">
+        <f t="shared" si="7"/>
+        <v>43.763103903511222</v>
+      </c>
+      <c r="C40" s="12">
+        <f t="shared" si="8"/>
+        <v>23104</v>
+      </c>
+      <c r="D40" s="12">
+        <f t="shared" si="9"/>
+        <v>1915.2092632695192</v>
+      </c>
+      <c r="E40" s="12">
+        <f t="shared" si="10"/>
+        <v>6651.9917933337056</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="25">
+        <f t="shared" si="7"/>
+        <v>169</v>
+      </c>
+      <c r="B41" s="38">
+        <f t="shared" si="7"/>
+        <v>68.508636005000128</v>
+      </c>
+      <c r="C41" s="12">
+        <f t="shared" si="8"/>
+        <v>28561</v>
+      </c>
+      <c r="D41" s="12">
+        <f t="shared" si="9"/>
+        <v>4693.4332072655998</v>
+      </c>
+      <c r="E41" s="12">
+        <f t="shared" si="10"/>
+        <v>11577.959484845022</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="25">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
+      <c r="B42" s="38">
+        <f t="shared" si="7"/>
+        <v>94.464449979056482</v>
+      </c>
+      <c r="C42" s="12">
+        <f t="shared" si="8"/>
+        <v>40000</v>
+      </c>
+      <c r="D42" s="12">
+        <f t="shared" si="9"/>
+        <v>8923.5323098456647</v>
+      </c>
+      <c r="E42" s="12">
+        <f t="shared" si="10"/>
+        <v>18892.889995811296</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="25">
+        <f t="shared" si="7"/>
+        <v>196</v>
+      </c>
+      <c r="B43" s="38">
+        <f t="shared" si="7"/>
+        <v>99.424545369522093</v>
+      </c>
+      <c r="C43" s="12">
+        <f t="shared" si="8"/>
+        <v>38416</v>
+      </c>
+      <c r="D43" s="12">
+        <f t="shared" si="9"/>
+        <v>9885.2402219361575</v>
+      </c>
+      <c r="E43" s="12">
+        <f t="shared" si="10"/>
+        <v>19487.21089242633</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="25">
+        <f t="shared" si="7"/>
+        <v>181</v>
+      </c>
+      <c r="B44" s="38">
+        <f t="shared" si="7"/>
+        <v>73.703292268249257</v>
+      </c>
+      <c r="C44" s="12">
+        <f t="shared" si="8"/>
+        <v>32761</v>
+      </c>
+      <c r="D44" s="12">
+        <f t="shared" si="9"/>
+        <v>5432.1752911789708</v>
+      </c>
+      <c r="E44" s="12">
+        <f t="shared" si="10"/>
+        <v>13340.295900553116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="25">
+        <f t="shared" si="7"/>
+        <v>152</v>
+      </c>
+      <c r="B45" s="38">
+        <f t="shared" si="7"/>
+        <v>49.888221905129662</v>
+      </c>
+      <c r="C45" s="12">
+        <f t="shared" si="8"/>
+        <v>23104</v>
+      </c>
+      <c r="D45" s="12">
+        <f t="shared" si="9"/>
+        <v>2488.8346848554588</v>
+      </c>
+      <c r="E45" s="12">
+        <f t="shared" si="10"/>
+        <v>7583.0097295797086</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="25">
+        <f t="shared" si="7"/>
+        <v>172</v>
+      </c>
+      <c r="B46" s="38">
+        <f t="shared" si="7"/>
+        <v>73.995890168108957</v>
+      </c>
+      <c r="C46" s="12">
+        <f t="shared" si="8"/>
+        <v>29584</v>
+      </c>
+      <c r="D46" s="12">
+        <f t="shared" si="9"/>
+        <v>5475.3917617708439</v>
+      </c>
+      <c r="E46" s="12">
+        <f t="shared" si="10"/>
+        <v>12727.293108914741</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="25">
+        <f t="shared" si="7"/>
+        <v>152</v>
+      </c>
+      <c r="B47" s="38">
+        <f t="shared" si="7"/>
+        <v>58.037306645999138</v>
+      </c>
+      <c r="C47" s="12">
+        <f t="shared" si="8"/>
+        <v>23104</v>
+      </c>
+      <c r="D47" s="12">
+        <f t="shared" si="9"/>
+        <v>3368.3289627217355</v>
+      </c>
+      <c r="E47" s="12">
+        <f t="shared" si="10"/>
+        <v>8821.670610191868</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="25">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="B48" s="38">
+        <f t="shared" si="7"/>
+        <v>46.007799123494053</v>
+      </c>
+      <c r="C48" s="12">
+        <f t="shared" si="8"/>
+        <v>22500</v>
+      </c>
+      <c r="D48" s="12">
+        <f t="shared" si="9"/>
+        <v>2116.7175801877802</v>
+      </c>
+      <c r="E48" s="12">
+        <f t="shared" si="10"/>
+        <v>6901.1698685241081</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="25">
+        <f t="shared" si="7"/>
+        <v>178</v>
+      </c>
+      <c r="B49" s="38">
+        <f t="shared" si="7"/>
+        <v>77.631893722862657</v>
+      </c>
+      <c r="C49" s="12">
+        <f t="shared" si="8"/>
+        <v>31684</v>
+      </c>
+      <c r="D49" s="12">
+        <f t="shared" si="9"/>
+        <v>6026.7109229978423</v>
+      </c>
+      <c r="E49" s="12">
+        <f t="shared" si="10"/>
+        <v>13818.477082669553</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="25">
+        <f t="shared" si="7"/>
+        <v>154</v>
+      </c>
+      <c r="B50" s="38">
+        <f t="shared" si="7"/>
+        <v>57.209055967964801</v>
+      </c>
+      <c r="C50" s="12">
+        <f t="shared" si="8"/>
+        <v>23716</v>
+      </c>
+      <c r="D50" s="12">
+        <f t="shared" si="9"/>
+        <v>3272.8760847457288</v>
+      </c>
+      <c r="E50" s="12">
+        <f t="shared" si="10"/>
+        <v>8810.1946190665785</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="25">
+        <f t="shared" si="7"/>
+        <v>190</v>
+      </c>
+      <c r="B51" s="38">
+        <f t="shared" si="7"/>
+        <v>90.179853518718915</v>
+      </c>
+      <c r="C51" s="12">
+        <f t="shared" si="8"/>
+        <v>36100</v>
+      </c>
+      <c r="D51" s="12">
+        <f t="shared" si="9"/>
+        <v>8132.4059806576006</v>
+      </c>
+      <c r="E51" s="12">
+        <f t="shared" si="10"/>
+        <v>17134.172168556594</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="25">
+        <f t="shared" si="7"/>
+        <v>195</v>
+      </c>
+      <c r="B52" s="38">
+        <f t="shared" si="7"/>
+        <v>98.141602375765785</v>
+      </c>
+      <c r="C52" s="12">
+        <f t="shared" si="8"/>
+        <v>38025</v>
+      </c>
+      <c r="D52" s="12">
+        <f t="shared" si="9"/>
+        <v>9631.7741168829161</v>
+      </c>
+      <c r="E52" s="12">
+        <f t="shared" si="10"/>
+        <v>19137.612463274327</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="25">
+        <f t="shared" si="7"/>
+        <v>182</v>
+      </c>
+      <c r="B53" s="38">
+        <f t="shared" si="7"/>
+        <v>79.708734856183924</v>
+      </c>
+      <c r="C53" s="12">
+        <f t="shared" si="8"/>
+        <v>33124</v>
+      </c>
+      <c r="D53" s="12">
+        <f t="shared" si="9"/>
+        <v>6353.4824123734297</v>
+      </c>
+      <c r="E53" s="12">
+        <f t="shared" si="10"/>
+        <v>14506.989743825474</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="25">
+        <f t="shared" si="7"/>
+        <v>184</v>
+      </c>
+      <c r="B54" s="38">
+        <f t="shared" si="7"/>
+        <v>88.405863665316872</v>
+      </c>
+      <c r="C54" s="12">
+        <f t="shared" si="8"/>
+        <v>33856</v>
+      </c>
+      <c r="D54" s="12">
+        <f t="shared" si="9"/>
+        <v>7815.5967304105943</v>
+      </c>
+      <c r="E54" s="12">
+        <f t="shared" si="10"/>
+        <v>16266.678914418304</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="25">
+        <f t="shared" si="7"/>
+        <v>156</v>
+      </c>
+      <c r="B55" s="38">
+        <f t="shared" si="7"/>
+        <v>41.795669608995773</v>
+      </c>
+      <c r="C55" s="12">
+        <f t="shared" si="8"/>
+        <v>24336</v>
+      </c>
+      <c r="D55" s="12">
+        <f t="shared" si="9"/>
+        <v>1746.8779980643328</v>
+      </c>
+      <c r="E55" s="12">
+        <f t="shared" si="10"/>
+        <v>6520.1244590033402</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="25">
+        <f>A23</f>
+        <v>154</v>
+      </c>
+      <c r="B56" s="38">
+        <f t="shared" ref="B56" si="11">B23</f>
+        <v>65.818202772477463</v>
+      </c>
+      <c r="C56" s="12">
+        <f t="shared" si="8"/>
+        <v>23716</v>
+      </c>
+      <c r="D56" s="12">
+        <f t="shared" si="9"/>
+        <v>4332.0358161989598</v>
+      </c>
+      <c r="E56" s="12">
+        <f t="shared" si="10"/>
+        <v>10136.003226961529</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="12">
+        <f>SUM(A37:A56)</f>
+        <v>3398</v>
+      </c>
+      <c r="B57" s="12">
+        <f>SUM(B37:B56)</f>
+        <v>1383.5349183195144</v>
+      </c>
+      <c r="C57" s="12">
+        <f>SUM(C37:C56)</f>
+        <v>583236</v>
+      </c>
+      <c r="D57" s="12">
+        <f>SUM(D37:D56)</f>
+        <v>102343.96416331873</v>
+      </c>
+      <c r="E57" s="12">
+        <f>SUM(E37:E56)</f>
+        <v>241030.32964255026</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="12">
+        <f>AVERAGE(A37:A56)</f>
+        <v>169.9</v>
+      </c>
+      <c r="B58" s="12">
+        <f>AVERAGE(B37:B56)</f>
+        <v>69.176745915975715</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/MSP_Projekt_2019-20_Reseni.xlsx
+++ b/MSP_Projekt_2019-20_Reseni.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harmim/Google Drive/VUT/NVER/MSP/Projekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmim\Disk Google\VUT\NVER\MSP\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093D8ADE-2640-1E4A-A29E-68E248A3A5A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6120" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{2738950E-B79B-4841-949D-6F671DC20716}"/>
+    <workbookView xWindow="-6120" yWindow="-21135" windowWidth="38400" windowHeight="21135"/>
   </bookViews>
   <sheets>
     <sheet name="Příklad 1" sheetId="1" r:id="rId1"/>
     <sheet name="Príklad 2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="126">
   <si>
     <t>X [mm]</t>
   </si>
@@ -208,12 +207,6 @@
   </si>
   <si>
     <t>0.995 kvantil Peras. roz. 1-alfa/2</t>
-  </si>
-  <si>
-    <t>doplněk kritického oboru 0.01 od</t>
-  </si>
-  <si>
-    <t>doplněk kritického oboru 0.01 do</t>
   </si>
   <si>
     <t>Intervalový odhad směrodatné odchylky</t>
@@ -435,16 +428,28 @@
   <si>
     <t>horní</t>
   </si>
+  <si>
+    <t>alfa 0.01 do</t>
+  </si>
+  <si>
+    <t>alfa 0.01 od</t>
+  </si>
+  <si>
+    <t>alfa 0.05 od</t>
+  </si>
+  <si>
+    <t>alfa 0.05 do</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000000000"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -831,29 +836,11 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -862,16 +849,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
@@ -899,23 +880,47 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{D18F5CFC-6E01-884F-B48F-8007CF199CC3}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -938,7 +943,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="cs-CZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -980,6 +985,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1005,7 +1011,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="cs-CZ"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1141,7 +1147,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2120381615"/>
@@ -1200,7 +1206,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2120801727"/>
@@ -1217,6 +1223,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1224,7 +1231,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1248,7 +1254,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="cs-CZ"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1262,7 +1268,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="cs-CZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1303,6 +1309,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1328,7 +1335,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="cs-CZ"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1453,7 +1460,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2097603039"/>
@@ -1512,7 +1519,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2121822079"/>
@@ -1529,6 +1536,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1536,7 +1544,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1560,7 +1567,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="cs-CZ"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1574,7 +1581,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="cs-CZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1611,6 +1618,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1636,7 +1644,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="cs-CZ"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1869,7 +1877,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2139749007"/>
@@ -1928,7 +1936,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2063641599"/>
@@ -1945,6 +1953,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1970,12 +1979,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="cs-CZ"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1983,7 +1993,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2007,7 +2016,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="cs-CZ"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2021,7 +2030,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="cs-CZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2063,6 +2072,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2088,7 +2098,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="cs-CZ"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2489,6 +2499,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2514,7 +2525,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="cs-CZ"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2552,7 +2563,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="471424504"/>
@@ -2606,6 +2617,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2631,7 +2643,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="cs-CZ"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2669,7 +2681,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="471423192"/>
@@ -2686,6 +2698,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2693,7 +2706,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2717,7 +2729,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="cs-CZ"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2731,7 +2743,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="cs-CZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2768,6 +2780,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2793,7 +2806,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="cs-CZ"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3537,6 +3550,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3562,7 +3576,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="cs-CZ"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3600,7 +3614,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="661919072"/>
@@ -3654,6 +3668,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3679,7 +3694,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="cs-CZ"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3717,7 +3732,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="661918416"/>
@@ -3734,6 +3749,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3741,7 +3757,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3765,7 +3780,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="cs-CZ"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3779,7 +3794,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="cs-CZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3816,6 +3831,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3841,7 +3857,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="cs-CZ"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4585,6 +4601,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4610,7 +4627,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="cs-CZ"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4648,7 +4665,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="661919072"/>
@@ -4702,6 +4719,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4727,7 +4745,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="cs-CZ"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4765,7 +4783,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="661918416"/>
@@ -4782,6 +4800,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4789,7 +4808,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4813,7 +4831,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="cs-CZ"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8649,35 +8667,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B5E636-41B7-3048-8D50-95828B442005}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K150"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.875" style="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="29" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.1640625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="24.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22" thickBot="1">
+    <row r="1" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -8685,7 +8703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17" thickBot="1">
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -8720,7 +8738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1.38</v>
       </c>
@@ -8759,7 +8777,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0.72</v>
       </c>
@@ -8768,7 +8786,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>0.18</v>
       </c>
@@ -8803,7 +8821,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>-0.11</v>
       </c>
@@ -8822,7 +8840,7 @@
         <v>-1.7809090909090908</v>
       </c>
       <c r="G7" s="1">
-        <f>(E7+F7)/2</f>
+        <f t="shared" ref="G7:G17" si="0">(E7+F7)/2</f>
         <v>-2.0304545454545453</v>
       </c>
       <c r="H7" s="1">
@@ -8830,7 +8848,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="1">
-        <f>COUNTIFS($B$4:$B$53,"&gt;="&amp;E7, $B$4:$B$53, "&lt;"&amp;F7)</f>
+        <f t="shared" ref="I7:I16" si="1">COUNTIFS($B$4:$B$53,"&gt;="&amp;E7, $B$4:$B$53, "&lt;"&amp;F7)</f>
         <v>1</v>
       </c>
       <c r="J7" s="1">
@@ -8842,7 +8860,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1.05</v>
       </c>
@@ -8853,15 +8871,15 @@
         <v>2</v>
       </c>
       <c r="E8" s="1">
-        <f>F7</f>
+        <f t="shared" ref="E8:E17" si="2">F7</f>
         <v>-1.7809090909090908</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" ref="F8:F17" si="0">E8+0.5</f>
+        <f t="shared" ref="F8:F16" si="3">E8+0.5</f>
         <v>-1.2809090909090908</v>
       </c>
       <c r="G8" s="1">
-        <f>(E8+F8)/2</f>
+        <f t="shared" si="0"/>
         <v>-1.5309090909090908</v>
       </c>
       <c r="H8" s="1">
@@ -8869,19 +8887,19 @@
         <v>1</v>
       </c>
       <c r="I8" s="1">
-        <f>COUNTIFS($B$4:$B$53,"&gt;="&amp;E8, $B$4:$B$53, "&lt;"&amp;F8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" ref="J8:J17" si="1">I8/50</f>
+        <f t="shared" ref="J8:J17" si="4">I8/50</f>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" ref="K8:K17" si="2">H8/50</f>
+        <f t="shared" ref="K8:K17" si="5">H8/50</f>
         <v>0.02</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1.45</v>
       </c>
@@ -8892,35 +8910,35 @@
         <v>3</v>
       </c>
       <c r="E9" s="1">
-        <f>F8</f>
+        <f t="shared" si="2"/>
         <v>-1.2809090909090908</v>
       </c>
       <c r="F9" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.78090909090909078</v>
+      </c>
+      <c r="G9" s="1">
         <f t="shared" si="0"/>
-        <v>-0.78090909090909078</v>
-      </c>
-      <c r="G9" s="1">
-        <f>(E9+F9)/2</f>
         <v>-1.0309090909090908</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" ref="H9:H17" si="3">H8+I9</f>
+        <f t="shared" ref="H9:H17" si="6">H8+I9</f>
         <v>2</v>
       </c>
       <c r="I9" s="1">
-        <f>COUNTIFS($B$4:$B$53,"&gt;="&amp;E9, $B$4:$B$53, "&lt;"&amp;F9)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.02</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>-0.28000000000000003</v>
       </c>
@@ -8931,35 +8949,35 @@
         <v>4</v>
       </c>
       <c r="E10" s="1">
-        <f>F9</f>
+        <f t="shared" si="2"/>
         <v>-0.78090909090909078</v>
       </c>
       <c r="F10" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.28090909090909078</v>
+      </c>
+      <c r="G10" s="1">
         <f t="shared" si="0"/>
-        <v>-0.28090909090909078</v>
-      </c>
-      <c r="G10" s="1">
-        <f>(E10+F10)/2</f>
         <v>-0.53090909090909078</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="I10" s="1">
-        <f>COUNTIFS($B$4:$B$53,"&gt;="&amp;E10, $B$4:$B$53, "&lt;"&amp;F10)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.18</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2.4900000000000002</v>
       </c>
@@ -8970,35 +8988,35 @@
         <v>5</v>
       </c>
       <c r="E11" s="1">
-        <f>F10</f>
+        <f t="shared" si="2"/>
         <v>-0.28090909090909078</v>
       </c>
       <c r="F11" s="1">
+        <f t="shared" si="3"/>
+        <v>0.21909090909090922</v>
+      </c>
+      <c r="G11" s="1">
         <f t="shared" si="0"/>
-        <v>0.21909090909090922</v>
-      </c>
-      <c r="G11" s="1">
-        <f>(E11+F11)/2</f>
         <v>-3.0909090909090775E-2</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="I11" s="1">
-        <f>COUNTIFS($B$4:$B$53,"&gt;="&amp;E11, $B$4:$B$53, "&lt;"&amp;F11)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.12</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>-0.54</v>
       </c>
@@ -9009,35 +9027,35 @@
         <v>6</v>
       </c>
       <c r="E12" s="1">
-        <f>F11</f>
+        <f t="shared" si="2"/>
         <v>0.21909090909090922</v>
       </c>
       <c r="F12" s="1">
+        <f t="shared" si="3"/>
+        <v>0.71909090909090922</v>
+      </c>
+      <c r="G12" s="1">
         <f t="shared" si="0"/>
-        <v>0.71909090909090922</v>
-      </c>
-      <c r="G12" s="1">
-        <f>(E12+F12)/2</f>
         <v>0.46909090909090922</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="I12" s="1">
-        <f>COUNTIFS($B$4:$B$53,"&gt;="&amp;E12, $B$4:$B$53, "&lt;"&amp;F12)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1.88</v>
       </c>
@@ -9048,35 +9066,35 @@
         <v>7</v>
       </c>
       <c r="E13" s="1">
-        <f>F12</f>
+        <f t="shared" si="2"/>
         <v>0.71909090909090922</v>
       </c>
       <c r="F13" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2190909090909092</v>
+      </c>
+      <c r="G13" s="1">
         <f t="shared" si="0"/>
-        <v>1.2190909090909092</v>
-      </c>
-      <c r="G13" s="1">
-        <f>(E13+F13)/2</f>
         <v>0.96909090909090922</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="I13" s="1">
-        <f>COUNTIFS($B$4:$B$53,"&gt;="&amp;E13, $B$4:$B$53, "&lt;"&amp;F13)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.22</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.72</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2.37</v>
       </c>
@@ -9087,35 +9105,35 @@
         <v>8</v>
       </c>
       <c r="E14" s="1">
-        <f>F13</f>
+        <f t="shared" si="2"/>
         <v>1.2190909090909092</v>
       </c>
       <c r="F14" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7190909090909092</v>
+      </c>
+      <c r="G14" s="1">
         <f t="shared" si="0"/>
-        <v>1.7190909090909092</v>
-      </c>
-      <c r="G14" s="1">
-        <f>(E14+F14)/2</f>
         <v>1.4690909090909092</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>41</v>
       </c>
       <c r="I14" s="1">
-        <f>COUNTIFS($B$4:$B$53,"&gt;="&amp;E14, $B$4:$B$53, "&lt;"&amp;F14)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.82</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>0.95</v>
       </c>
@@ -9126,35 +9144,35 @@
         <v>9</v>
       </c>
       <c r="E15" s="1">
-        <f>F14</f>
+        <f t="shared" si="2"/>
         <v>1.7190909090909092</v>
       </c>
       <c r="F15" s="1">
+        <f t="shared" si="3"/>
+        <v>2.2190909090909092</v>
+      </c>
+      <c r="G15" s="1">
         <f t="shared" si="0"/>
-        <v>2.2190909090909092</v>
-      </c>
-      <c r="G15" s="1">
-        <f>(E15+F15)/2</f>
         <v>1.9690909090909092</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
       <c r="I15" s="1">
-        <f>COUNTIFS($B$4:$B$53,"&gt;="&amp;E15, $B$4:$B$53, "&lt;"&amp;F15)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.06</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.88</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>-0.55000000000000004</v>
       </c>
@@ -9165,35 +9183,35 @@
         <v>10</v>
       </c>
       <c r="E16" s="1">
-        <f>F15</f>
+        <f t="shared" si="2"/>
         <v>2.2190909090909092</v>
       </c>
       <c r="F16" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7190909090909092</v>
+      </c>
+      <c r="G16" s="1">
         <f t="shared" si="0"/>
-        <v>2.7190909090909092</v>
-      </c>
-      <c r="G16" s="1">
-        <f>(E16+F16)/2</f>
         <v>2.4690909090909092</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
       <c r="I16" s="1">
-        <f>COUNTIFS($B$4:$B$53,"&gt;="&amp;E16, $B$4:$B$53, "&lt;"&amp;F16)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.04</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.92</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2.0499999999999998</v>
       </c>
@@ -9204,7 +9222,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="1">
-        <f>F16</f>
+        <f t="shared" si="2"/>
         <v>2.7190909090909092</v>
       </c>
       <c r="F17" s="1">
@@ -9212,11 +9230,11 @@
         <v>3.21</v>
       </c>
       <c r="G17" s="1">
-        <f>(E17+F17)/2</f>
+        <f t="shared" si="0"/>
         <v>2.9645454545454548</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="I17" s="1">
@@ -9224,15 +9242,15 @@
         <v>4</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.08</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1.29</v>
       </c>
@@ -9241,7 +9259,7 @@
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -9250,7 +9268,7 @@
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1.59</v>
       </c>
@@ -9261,7 +9279,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>-0.2</v>
       </c>
@@ -9272,7 +9290,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>-0.79</v>
       </c>
@@ -9283,7 +9301,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>0.37</v>
       </c>
@@ -9294,7 +9312,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>0.95</v>
       </c>
@@ -9305,7 +9323,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>0.97</v>
       </c>
@@ -9316,7 +9334,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>-2.2799999999999998</v>
       </c>
@@ -9327,7 +9345,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2.88</v>
       </c>
@@ -9338,7 +9356,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>0.78</v>
       </c>
@@ -9349,7 +9367,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>0.78</v>
       </c>
@@ -9360,7 +9378,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>-0.65</v>
       </c>
@@ -9371,7 +9389,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>0.39</v>
       </c>
@@ -9382,7 +9400,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>0.49</v>
       </c>
@@ -9393,7 +9411,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>0.86</v>
       </c>
@@ -9402,7 +9420,7 @@
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>1.88</v>
       </c>
@@ -9428,7 +9446,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>0.47</v>
       </c>
@@ -9456,7 +9474,7 @@
         <v>1.100921232423101</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>0.51</v>
       </c>
@@ -9465,7 +9483,7 @@
       </c>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>0.93</v>
       </c>
@@ -9485,7 +9503,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>3.21</v>
       </c>
@@ -9505,7 +9523,7 @@
         <v>1.1120983842837515</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>0.6</v>
       </c>
@@ -9514,7 +9532,7 @@
       </c>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>0.4</v>
       </c>
@@ -9526,7 +9544,7 @@
       </c>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>1.1399999999999999</v>
       </c>
@@ -9558,7 +9576,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>2.82</v>
       </c>
@@ -9576,7 +9594,7 @@
         <v>-0.28090909090909078</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" ref="G42:G47" si="4">(E42+F42)/2</f>
+        <f t="shared" ref="G42:G47" si="7">(E42+F42)/2</f>
         <v>-500.14045454545453</v>
       </c>
       <c r="H42" s="1">
@@ -9584,11 +9602,11 @@
         <v>9</v>
       </c>
       <c r="I42" s="1">
-        <f t="shared" ref="I42:I47" si="5">COUNTIFS($B$4:$B$53,"&gt;="&amp;E42, $B$4:$B$53, "&lt;"&amp;F42)</f>
+        <f t="shared" ref="I42:I47" si="8">COUNTIFS($B$4:$B$53,"&gt;="&amp;E42, $B$4:$B$53, "&lt;"&amp;F42)</f>
         <v>9</v>
       </c>
       <c r="J42" s="1">
-        <f t="shared" ref="J42:J47" si="6">(_xlfn.NORM.DIST(F42,$D$38,$F$38,TRUE)-_xlfn.NORM.DIST(E42,$D$38,$F$38,TRUE))*$K$4</f>
+        <f t="shared" ref="J42:J47" si="9">(_xlfn.NORM.DIST(F42,$D$38,$F$38,TRUE)-_xlfn.NORM.DIST(E42,$D$38,$F$38,TRUE))*$K$4</f>
         <v>8.9207868386954203</v>
       </c>
       <c r="K42" s="1">
@@ -9596,7 +9614,7 @@
         <v>7.0338245239171936E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>1.07</v>
       </c>
@@ -9615,7 +9633,7 @@
         <v>0.21818181818181831</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-3.1363636363636233E-2</v>
       </c>
       <c r="H43" s="1">
@@ -9623,19 +9641,19 @@
         <v>15</v>
       </c>
       <c r="I43" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="J43" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6.9910282943689017</v>
       </c>
       <c r="K43" s="1">
-        <f t="shared" ref="K43:K47" si="7">(J43-I43)^2/J43</f>
+        <f t="shared" ref="K43:K47" si="10">(J43-I43)^2/J43</f>
         <v>0.14048535335364346</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>1.32</v>
       </c>
@@ -9654,7 +9672,7 @@
         <v>0.7172727272727274</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.46772727272727288</v>
       </c>
       <c r="H44" s="1">
@@ -9662,19 +9680,19 @@
         <v>25</v>
       </c>
       <c r="I44" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J44" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8.6124244785569939</v>
       </c>
       <c r="K44" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.22355677341514688</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>0.66</v>
       </c>
@@ -9693,7 +9711,7 @@
         <v>1.2163636363636365</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.96681818181818202</v>
       </c>
       <c r="H45" s="1">
@@ -9701,19 +9719,19 @@
         <v>36</v>
       </c>
       <c r="I45" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="J45" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8.7035623701424232</v>
       </c>
       <c r="K45" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.60591578063679563</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>-0.53</v>
       </c>
@@ -9732,7 +9750,7 @@
         <v>1.7154545454545456</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.4659090909090911</v>
       </c>
       <c r="H46" s="1">
@@ -9740,19 +9758,19 @@
         <v>41</v>
       </c>
       <c r="I46" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="J46" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7.2153304718395148</v>
       </c>
       <c r="K46" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.6801752350241963</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>-0.76</v>
       </c>
@@ -9770,7 +9788,7 @@
         <v>1000</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>500.85772727272729</v>
       </c>
       <c r="H47" s="1">
@@ -9778,19 +9796,19 @@
         <v>50</v>
       </c>
       <c r="I47" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="J47" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9.556867546396747</v>
       </c>
       <c r="K47" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.2448023656752631E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>2.8</v>
       </c>
@@ -9798,7 +9816,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>0.4</v>
       </c>
@@ -9824,7 +9842,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>0.7</v>
       </c>
@@ -9854,7 +9872,7 @@
         <v>7.8147279032511792</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>-0.68</v>
       </c>
@@ -9865,7 +9883,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>0.19</v>
       </c>
@@ -9874,7 +9892,7 @@
       </c>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>-0.48</v>
       </c>
@@ -9883,12 +9901,12 @@
       </c>
       <c r="D53" s="2"/>
     </row>
-    <row r="66" spans="3:6">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C66" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="3:6">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D67" s="2" t="s">
         <v>31</v>
       </c>
@@ -9899,7 +9917,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="3:6">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D68" s="2">
         <f>AVERAGE(B4:B53)</f>
         <v>0.74379999999999991</v>
@@ -9913,12 +9931,12 @@
         <v>1.1120983842837515</v>
       </c>
     </row>
-    <row r="71" spans="3:6">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D71" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="72" spans="3:6">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D72" s="1" t="s">
         <v>51</v>
       </c>
@@ -9929,7 +9947,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="3:6">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D73" s="1">
         <f>TINV(E73,F73)</f>
         <v>2.0095752371292388</v>
@@ -9942,7 +9960,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="3:6">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D75" s="1" t="s">
         <v>52</v>
       </c>
@@ -9953,7 +9971,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="3:6">
+    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D76" s="1">
         <f>TINV(E76,F76)</f>
         <v>2.6799519736315514</v>
@@ -9966,15 +9984,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="78" spans="3:6">
+    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D78" s="1" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="79" spans="3:6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D79" s="1">
         <f>D68-D73*F68/SQRT(K4)</f>
         <v>0.42774513618467602</v>
@@ -9984,15 +10002,15 @@
         <v>1.0598548638153238</v>
       </c>
     </row>
-    <row r="81" spans="4:7">
+    <row r="81" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D81" s="1" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="82" spans="4:7">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D82" s="1">
         <f>D68-D76*F68/SQRT(K4)</f>
         <v>0.32231199576497566</v>
@@ -10002,12 +10020,12 @@
         <v>1.1652880042350242</v>
       </c>
     </row>
-    <row r="84" spans="4:7">
+    <row r="84" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D84" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="4:7">
+    <row r="85" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D85" s="1" t="s">
         <v>54</v>
       </c>
@@ -10021,7 +10039,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="4:7">
+    <row r="86" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D86" s="1">
         <f>CHIINV(1-F86,G86)</f>
         <v>31.554916462667144</v>
@@ -10038,7 +10056,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7">
+    <row r="88" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D88" s="1" t="s">
         <v>55</v>
       </c>
@@ -10052,7 +10070,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="4:7">
+    <row r="89" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D89" s="1">
         <f>CHIINV(1-F89,G89)</f>
         <v>27.249349069569636</v>
@@ -10069,102 +10087,102 @@
         <v>49</v>
       </c>
     </row>
-    <row r="91" spans="4:7">
+    <row r="91" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D91" s="1" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="92" spans="4:7">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D92" s="1">
-        <f>((K4-1)*F68)/E86</f>
-        <v>0.77600324543602317</v>
+        <f>((K4-1)*E68)/E86</f>
+        <v>0.86299195544834872</v>
       </c>
       <c r="E92" s="1">
-        <f>((K4-1)*F68)/D86</f>
-        <v>1.7269201423611655</v>
-      </c>
-    </row>
-    <row r="94" spans="4:7">
+        <f>((K4-1)*E68)/D86</f>
+        <v>1.920505100106918</v>
+      </c>
+    </row>
+    <row r="94" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D94" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D95" s="1">
+        <f>((K4-1)*E68)/E89</f>
+        <v>0.77464948844443127</v>
+      </c>
+      <c r="E95" s="1">
+        <f>((K4-1)*E68)/D89</f>
+        <v>2.2239569042651302</v>
+      </c>
+    </row>
+    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D97" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="95" spans="4:7">
-      <c r="D95" s="1">
-        <f>((K4-1)*F68)/E89</f>
-        <v>0.69656560911501142</v>
-      </c>
-      <c r="E95" s="1">
-        <f>((K4-1)*F68)/D89</f>
-        <v>1.9997843137749662</v>
-      </c>
-    </row>
-    <row r="97" spans="3:6">
-      <c r="D97" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="98" spans="3:6">
+    </row>
+    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D98" s="1" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="99" spans="3:6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="99" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D99" s="1">
         <f>SQRT(D92)</f>
-        <v>0.88091046391561456</v>
+        <v>0.92897360320320654</v>
       </c>
       <c r="E99" s="1">
         <f>SQRT(E92)</f>
-        <v>1.3141233360537989</v>
-      </c>
-    </row>
-    <row r="101" spans="3:6">
+        <v>1.3858228963712924</v>
+      </c>
+    </row>
+    <row r="101" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D101" s="1" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="102" spans="3:6">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="102" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D102" s="1">
         <f>SQRT(D95)</f>
-        <v>0.83460506175975913</v>
+        <v>0.88014174338252549</v>
       </c>
       <c r="E102" s="1">
         <f>SQRT(E95)</f>
-        <v>1.414137303720882</v>
-      </c>
-    </row>
-    <row r="104" spans="3:6">
+        <v>1.491293701544109</v>
+      </c>
+    </row>
+    <row r="104" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C104" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="105" spans="3:6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="105" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D105" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="106" spans="3:6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D106" s="1">
         <f>(D68-0)/F68*SQRT(K4)</f>
         <v>4.7293120040390155</v>
       </c>
     </row>
-    <row r="108" spans="3:6">
+    <row r="108" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D108" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>45</v>
@@ -10173,7 +10191,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="109" spans="3:6">
+    <row r="109" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D109" s="1">
         <f>TINV(E109,F109)</f>
         <v>2.0095752371292388</v>
@@ -10185,7 +10203,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="111" spans="3:6">
+    <row r="111" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D111" s="1" t="s">
         <v>47</v>
       </c>
@@ -10193,7 +10211,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="112" spans="3:6">
+    <row r="112" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D112" s="1">
         <f>-D109</f>
         <v>-2.0095752371292388</v>
@@ -10203,25 +10221,25 @@
         <v>2.0095752371292388</v>
       </c>
     </row>
-    <row r="114" spans="3:8">
+    <row r="114" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D114" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="116" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C116" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="117" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D117" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="116" spans="3:8">
-      <c r="C116" s="1" t="s">
+      <c r="E117" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="117" spans="3:8">
-      <c r="D117" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="118" spans="3:8">
+    <row r="118" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D118" s="2">
         <v>1.38</v>
       </c>
@@ -10229,7 +10247,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="119" spans="3:8">
+    <row r="119" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D119" s="2">
         <v>0.72</v>
       </c>
@@ -10237,7 +10255,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="120" spans="3:8">
+    <row r="120" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D120" s="2">
         <v>0.18</v>
       </c>
@@ -10245,13 +10263,13 @@
         <v>-2.2799999999999998</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="121" spans="3:8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="121" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D121" s="2">
         <v>-0.11</v>
       </c>
@@ -10259,7 +10277,7 @@
         <v>2.88</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G121" s="1">
         <f>COUNT(D118:D137)</f>
@@ -10270,7 +10288,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="122" spans="3:8">
+    <row r="122" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D122" s="2">
         <v>1.05</v>
       </c>
@@ -10289,7 +10307,7 @@
         <v>0.72733333333333339</v>
       </c>
     </row>
-    <row r="123" spans="3:8">
+    <row r="123" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D123" s="2">
         <v>1.45</v>
       </c>
@@ -10308,7 +10326,7 @@
         <v>1.3531195555555553</v>
       </c>
     </row>
-    <row r="124" spans="3:8">
+    <row r="124" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D124" s="2">
         <v>-0.28000000000000003</v>
       </c>
@@ -10316,7 +10334,7 @@
         <v>-0.65</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G124" s="1">
         <f>_xlfn.STDEV.P(D118:D137)</f>
@@ -10327,7 +10345,7 @@
         <v>1.163236672201988</v>
       </c>
     </row>
-    <row r="125" spans="3:8">
+    <row r="125" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D125" s="2">
         <v>2.4900000000000002</v>
       </c>
@@ -10335,7 +10353,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="126" spans="3:8">
+    <row r="126" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D126" s="2">
         <v>-0.54</v>
       </c>
@@ -10343,10 +10361,10 @@
         <v>0.49</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="127" spans="3:8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="127" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D127" s="2">
         <v>1.88</v>
       </c>
@@ -10354,14 +10372,14 @@
         <v>0.86</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G127" s="1">
         <f>G123/H123</f>
         <v>0.73856943822653121</v>
       </c>
     </row>
-    <row r="128" spans="3:8">
+    <row r="128" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D128" s="2">
         <v>2.37</v>
       </c>
@@ -10369,7 +10387,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="129" spans="4:9">
+    <row r="129" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D129" s="2">
         <v>0.95</v>
       </c>
@@ -10377,19 +10395,19 @@
         <v>0.47</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="130" spans="4:9">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="130" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D130" s="2">
         <v>-0.55000000000000004</v>
       </c>
@@ -10412,7 +10430,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="131" spans="4:9">
+    <row r="131" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D131" s="2">
         <v>2.0499999999999998</v>
       </c>
@@ -10420,7 +10438,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="132" spans="4:9">
+    <row r="132" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D132" s="2">
         <v>1.29</v>
       </c>
@@ -10428,19 +10446,19 @@
         <v>3.21</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="133" spans="4:9">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="133" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D133" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -10463,7 +10481,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="134" spans="4:9">
+    <row r="134" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D134" s="2">
         <v>1.59</v>
       </c>
@@ -10471,7 +10489,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="135" spans="4:9">
+    <row r="135" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D135" s="2">
         <v>-0.2</v>
       </c>
@@ -10485,7 +10503,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="136" spans="4:9">
+    <row r="136" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D136" s="2">
         <v>-0.79</v>
       </c>
@@ -10501,7 +10519,7 @@
         <v>2.2312738331007593</v>
       </c>
     </row>
-    <row r="137" spans="4:9">
+    <row r="137" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D137" s="2">
         <v>0.37</v>
       </c>
@@ -10509,55 +10527,55 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="138" spans="4:9">
+    <row r="138" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E138" s="2">
         <v>1.32</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="139" spans="4:9">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="139" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E139" s="2">
         <v>0.66</v>
       </c>
     </row>
-    <row r="140" spans="4:9">
+    <row r="140" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E140" s="2">
         <v>-0.53</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="141" spans="4:9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="141" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E141" s="2">
         <v>-0.76</v>
       </c>
     </row>
-    <row r="142" spans="4:9">
+    <row r="142" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E142" s="2">
         <v>2.8</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G142" s="1">
         <f>(G122-H122-0)/SQRT((G121-1)*G123+(H121-1)*H123)*SQRT(G121*H121*(G121+H121-2)/(G121+H121))</f>
         <v>0.1294759061703781</v>
       </c>
     </row>
-    <row r="143" spans="4:9">
+    <row r="143" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E143" s="2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="144" spans="4:9">
+    <row r="144" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E144" s="2">
         <v>0.7</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>45</v>
@@ -10566,7 +10584,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="145" spans="5:8">
+    <row r="145" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E145" s="2">
         <v>-0.68</v>
       </c>
@@ -10582,12 +10600,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="146" spans="5:8">
+    <row r="146" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E146" s="2">
         <v>0.19</v>
       </c>
     </row>
-    <row r="147" spans="5:8">
+    <row r="147" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E147" s="2">
         <v>-0.48</v>
       </c>
@@ -10598,7 +10616,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="148" spans="5:8">
+    <row r="148" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E148" s="9"/>
       <c r="F148" s="1">
         <f>-F145</f>
@@ -10609,17 +10627,17 @@
         <v>2.0106347576242314</v>
       </c>
     </row>
-    <row r="149" spans="5:8">
+    <row r="149" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E149" s="9"/>
     </row>
-    <row r="150" spans="5:8">
+    <row r="150" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E150" s="9"/>
       <c r="F150" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E21:E31">
+  <sortState ref="E21:E31">
     <sortCondition ref="E21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10628,1558 +10646,1558 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDDE510-A1CE-BE4A-9AC5-4C4E12E5BBAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="12"/>
-    <col min="7" max="7" width="14.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="12"/>
-    <col min="10" max="11" width="8.6640625" style="12" customWidth="1"/>
-    <col min="12" max="12" width="9" style="12" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" style="12" customWidth="1"/>
-    <col min="14" max="14" width="12.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.83203125" style="12"/>
+    <col min="1" max="1" width="14.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="10"/>
+    <col min="7" max="7" width="14.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="10"/>
+    <col min="10" max="11" width="8.625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="9" style="10" customWidth="1"/>
+    <col min="13" max="13" width="7.375" style="10" customWidth="1"/>
+    <col min="14" max="14" width="12.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="25" thickBot="1">
-      <c r="A1" s="10">
+    <row r="1" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="35">
         <v>6</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="G1" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="16">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="36"/>
+      <c r="G1" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="G2" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="I2" s="16" t="s">
+      <c r="B2" s="12"/>
+      <c r="G2" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="16" t="s">
+      <c r="H2" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="L2" s="17"/>
-      <c r="M2" s="18" t="s">
+      <c r="I2" s="39" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="17" thickBot="1">
-      <c r="A3" s="19" t="s">
+      <c r="J2" s="40"/>
+      <c r="K2" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="L2" s="40"/>
+      <c r="M2" s="33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="J3" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="L3" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="M3" s="24"/>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="M3" s="34"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>150</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="28">
         <v>50.439765218123881</v>
       </c>
-      <c r="D4" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="26">
+      <c r="D4" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="18">
         <f>(ABS(B30) * SQRT(B24 - 2)) / SQRT(1 - POWER(B30, 2))</f>
         <v>13.270020456314787</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="19">
         <f>A4</f>
         <v>150</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="20">
         <f t="shared" ref="H4:H23" si="0">$E$14 + $E$13 * G4</f>
         <v>49.102002736813347</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="21">
         <f>H4 - $E$5 * SQRT($E$16) * SQRT(M4)</f>
         <v>44.901265229211752</v>
       </c>
-      <c r="J4" s="29">
+      <c r="J4" s="21">
         <f t="shared" ref="J4:J23" si="1">H4 + $E$5 * SQRT($E$16) * SQRT(M4)</f>
         <v>53.302740244414942</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="21">
         <f t="shared" ref="K4:K23" si="2">H4 - $E$5 * SQRT($E$16) * SQRT(M4 + 1)</f>
         <v>36.119538409109531</v>
       </c>
-      <c r="L4" s="29">
+      <c r="L4" s="21">
         <f t="shared" ref="L4:L23" si="3">H4 + $E$5 * SQRT($E$16) * SQRT(M4 + 1)</f>
         <v>62.084467064517163</v>
       </c>
-      <c r="M4" s="30">
+      <c r="M4" s="22">
         <f>1 / $B$24 + ($B$24 * (G4 - $B$25)^2) / $E$10</f>
         <v>0.1169410730585889</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="16" thickBot="1">
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>177</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="28">
         <v>73.187912440909315</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="26">
+      <c r="D5" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="18">
         <v>2.1009220370000001</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="19">
         <f t="shared" ref="G5:G23" si="4">A5</f>
         <v>177</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="23">
         <f t="shared" si="0"/>
         <v>76.339091472360252</v>
       </c>
-      <c r="I5" s="32">
-        <f t="shared" ref="I4:I23" si="5">H5 - $E$5 * SQRT($E$16) * SQRT(M5)</f>
+      <c r="I5" s="24">
+        <f t="shared" ref="I5:I23" si="5">H5 - $E$5 * SQRT($E$16) * SQRT(M5)</f>
         <v>73.367433668989747</v>
       </c>
-      <c r="J5" s="32">
+      <c r="J5" s="24">
         <f t="shared" si="1"/>
         <v>79.310749275730757</v>
       </c>
-      <c r="K5" s="32">
+      <c r="K5" s="24">
         <f t="shared" si="2"/>
         <v>63.700700177869322</v>
       </c>
-      <c r="L5" s="32">
+      <c r="L5" s="24">
         <f t="shared" si="3"/>
         <v>88.977482766851182</v>
       </c>
-      <c r="M5" s="30">
-        <f t="shared" ref="M4:M23" si="6">1 / $B$24 + ($B$24 * (G5 - $B$25)^2) / $E$10</f>
+      <c r="M5" s="22">
+        <f t="shared" ref="M5:M23" si="6">1 / $B$24 + ($B$24 * (G5 - $B$25)^2) / $E$10</f>
         <v>5.85212481828324E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16" thickBot="1">
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>154</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="28">
         <v>53.223118804124248</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" s="27">
+      <c r="D6" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="19">
         <f t="shared" si="4"/>
         <v>154</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="23">
         <f t="shared" si="0"/>
         <v>53.137126993931389</v>
       </c>
-      <c r="I6" s="32">
+      <c r="I6" s="24">
         <f t="shared" si="5"/>
         <v>49.396338382306183</v>
       </c>
-      <c r="J6" s="32">
+      <c r="J6" s="24">
         <f t="shared" si="1"/>
         <v>56.877915605556595</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K6" s="24">
         <f t="shared" si="2"/>
         <v>40.296111307888637</v>
       </c>
-      <c r="L6" s="32">
+      <c r="L6" s="24">
         <f t="shared" si="3"/>
         <v>65.978142679974141</v>
       </c>
-      <c r="M6" s="30">
+      <c r="M6" s="22">
         <f t="shared" si="6"/>
         <v>9.273471043645834E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="16" thickBot="1">
+    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>152</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="28">
         <v>43.763103903511222</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="G7" s="27">
+      <c r="D7" s="17"/>
+      <c r="E7" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" s="19">
         <f t="shared" si="4"/>
         <v>152</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="23">
         <f t="shared" si="0"/>
         <v>51.119564865372354</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="24">
         <f t="shared" si="5"/>
         <v>47.154994661299938</v>
       </c>
-      <c r="J7" s="32">
+      <c r="J7" s="24">
         <f t="shared" si="1"/>
         <v>55.08413506944477</v>
       </c>
-      <c r="K7" s="32">
+      <c r="K7" s="24">
         <f t="shared" si="2"/>
         <v>38.211582787783698</v>
       </c>
-      <c r="L7" s="32">
+      <c r="L7" s="24">
         <f t="shared" si="3"/>
         <v>64.02754694296101</v>
       </c>
-      <c r="M7" s="30">
+      <c r="M7" s="22">
         <f t="shared" si="6"/>
         <v>0.10416173636701717</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="16" thickBot="1">
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>169</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="28">
         <v>68.508636005000128</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-      <c r="G8" s="27">
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="G8" s="19">
         <f t="shared" si="4"/>
         <v>169</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="23">
         <f t="shared" si="0"/>
         <v>68.268842958124139</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="24">
         <f t="shared" si="5"/>
         <v>65.518284756408605</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J8" s="24">
         <f t="shared" si="1"/>
         <v>71.019401159839674</v>
       </c>
-      <c r="K8" s="32">
+      <c r="K8" s="24">
         <f t="shared" si="2"/>
         <v>55.680604207871745</v>
       </c>
-      <c r="L8" s="32">
+      <c r="L8" s="24">
         <f t="shared" si="3"/>
         <v>80.857081708376526</v>
       </c>
-      <c r="M8" s="30">
+      <c r="M8" s="22">
         <f t="shared" si="6"/>
         <v>5.0136921464552557E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="16" thickBot="1">
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>200</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="28">
         <v>94.464449979056482</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="G9" s="27">
+      <c r="E9" s="18"/>
+      <c r="G9" s="19">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="23">
         <f t="shared" si="0"/>
         <v>99.541055950789143</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="24">
         <f t="shared" si="5"/>
         <v>94.004351193589258</v>
       </c>
-      <c r="J9" s="32">
+      <c r="J9" s="24">
         <f t="shared" si="1"/>
         <v>105.07776070798903</v>
       </c>
-      <c r="K9" s="32">
+      <c r="K9" s="24">
         <f t="shared" si="2"/>
         <v>86.066884956596923</v>
       </c>
-      <c r="L9" s="32">
+      <c r="L9" s="24">
         <f t="shared" si="3"/>
         <v>113.01522694498136</v>
       </c>
-      <c r="M9" s="30">
+      <c r="M9" s="22">
         <f t="shared" si="6"/>
         <v>0.20315088407315995</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="16" thickBot="1">
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>196</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="28">
         <v>99.424545369522093</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="26">
+      <c r="D10" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="18">
         <f>B24 * B27 - POWER(B31,2)</f>
         <v>118316</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="19">
         <f t="shared" si="4"/>
         <v>196</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="23">
         <f t="shared" si="0"/>
         <v>95.505931693671073</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="24">
         <f t="shared" si="5"/>
         <v>90.513840071535796</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J10" s="24">
         <f t="shared" si="1"/>
         <v>100.49802331580635</v>
       </c>
-      <c r="K10" s="32">
+      <c r="K10" s="24">
         <f t="shared" si="2"/>
         <v>82.246249828101128</v>
       </c>
-      <c r="L10" s="32">
+      <c r="L10" s="24">
         <f t="shared" si="3"/>
         <v>108.76561355924102</v>
       </c>
-      <c r="M10" s="30">
+      <c r="M10" s="22">
         <f t="shared" si="6"/>
         <v>0.16515095168869801</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="16" thickBot="1">
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>181</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="28">
         <v>73.703292268249257</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="G11" s="27">
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="G11" s="19">
         <f t="shared" si="4"/>
         <v>181</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="23">
         <f t="shared" si="0"/>
         <v>80.374215729478323</v>
       </c>
-      <c r="I11" s="32">
+      <c r="I11" s="24">
         <f t="shared" si="5"/>
         <v>77.105009805775197</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J11" s="24">
         <f t="shared" si="1"/>
         <v>83.643421653181449</v>
       </c>
-      <c r="K11" s="32">
+      <c r="K11" s="24">
         <f t="shared" si="2"/>
         <v>67.662571784499889</v>
       </c>
-      <c r="L11" s="32">
+      <c r="L11" s="24">
         <f t="shared" si="3"/>
         <v>93.085859674456756</v>
       </c>
-      <c r="M11" s="30">
+      <c r="M11" s="22">
         <f t="shared" si="6"/>
         <v>7.0827276108049619E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="16" thickBot="1">
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>152</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="28">
         <v>49.888221905129662</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" s="26"/>
-      <c r="G12" s="27">
+      <c r="D12" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="G12" s="19">
         <f t="shared" si="4"/>
         <v>152</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="23">
         <f t="shared" si="0"/>
         <v>51.119564865372354</v>
       </c>
-      <c r="I12" s="32">
+      <c r="I12" s="24">
         <f t="shared" si="5"/>
         <v>47.154994661299938</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="24">
         <f t="shared" si="1"/>
         <v>55.08413506944477</v>
       </c>
-      <c r="K12" s="32">
+      <c r="K12" s="24">
         <f t="shared" si="2"/>
         <v>38.211582787783698</v>
       </c>
-      <c r="L12" s="32">
+      <c r="L12" s="24">
         <f t="shared" si="3"/>
         <v>64.02754694296101</v>
       </c>
-      <c r="M12" s="30">
+      <c r="M12" s="22">
         <f t="shared" si="6"/>
         <v>0.10416173636701717</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="16" thickBot="1">
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>172</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="28">
         <v>73.995890168108957</v>
       </c>
-      <c r="D13" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="26">
+      <c r="D13" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="18">
         <f>(1 / E10) * (B24 * B29 - B31 * B32)</f>
         <v>1.0087810642795159</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="19">
         <f t="shared" si="4"/>
         <v>172</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="23">
         <f t="shared" si="0"/>
         <v>71.295186150962678</v>
       </c>
-      <c r="I13" s="32">
+      <c r="I13" s="24">
         <f t="shared" si="5"/>
         <v>68.527985764580478</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J13" s="24">
         <f t="shared" si="1"/>
         <v>74.062386537344878</v>
       </c>
-      <c r="K13" s="32">
+      <c r="K13" s="24">
         <f t="shared" si="2"/>
         <v>58.703300573705988</v>
       </c>
-      <c r="L13" s="32">
+      <c r="L13" s="24">
         <f t="shared" si="3"/>
         <v>83.887071728219368</v>
       </c>
-      <c r="M13" s="30">
+      <c r="M13" s="22">
         <f t="shared" si="6"/>
         <v>5.0745461307008348E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="16" thickBot="1">
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>152</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="28">
         <v>58.037306645999138</v>
       </c>
-      <c r="D14" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="26">
+      <c r="D14" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="18">
         <f>B26 - E13 * B25</f>
         <v>-102.21515690511404</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="19">
         <f t="shared" si="4"/>
         <v>152</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="23">
         <f t="shared" si="0"/>
         <v>51.119564865372354</v>
       </c>
-      <c r="I14" s="32">
+      <c r="I14" s="24">
         <f t="shared" si="5"/>
         <v>47.154994661299938</v>
       </c>
-      <c r="J14" s="32">
+      <c r="J14" s="24">
         <f t="shared" si="1"/>
         <v>55.08413506944477</v>
       </c>
-      <c r="K14" s="32">
+      <c r="K14" s="24">
         <f t="shared" si="2"/>
         <v>38.211582787783698</v>
       </c>
-      <c r="L14" s="32">
+      <c r="L14" s="24">
         <f t="shared" si="3"/>
         <v>64.02754694296101</v>
       </c>
-      <c r="M14" s="30">
+      <c r="M14" s="22">
         <f t="shared" si="6"/>
         <v>0.10416173636701717</v>
       </c>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-    </row>
-    <row r="15" spans="1:15" ht="16" thickBot="1">
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>150</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="28">
         <v>46.007799123494053</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="26">
+      <c r="D15" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="18">
         <f>B28 - E14 * B32 - E13 * B29</f>
         <v>615.37046259760973</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="19">
         <f t="shared" si="4"/>
         <v>150</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="23">
         <f t="shared" si="0"/>
         <v>49.102002736813347</v>
       </c>
-      <c r="I15" s="32">
+      <c r="I15" s="24">
         <f t="shared" si="5"/>
         <v>44.901265229211752</v>
       </c>
-      <c r="J15" s="32">
+      <c r="J15" s="24">
         <f t="shared" si="1"/>
         <v>53.302740244414942</v>
       </c>
-      <c r="K15" s="32">
+      <c r="K15" s="24">
         <f t="shared" si="2"/>
         <v>36.119538409109531</v>
       </c>
-      <c r="L15" s="32">
+      <c r="L15" s="24">
         <f t="shared" si="3"/>
         <v>62.084467064517163</v>
       </c>
-      <c r="M15" s="30">
+      <c r="M15" s="22">
         <f t="shared" si="6"/>
         <v>0.1169410730585889</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="16" thickBot="1">
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>178</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="28">
         <v>77.631893722862657</v>
       </c>
-      <c r="D16" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="26">
+      <c r="D16" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="18">
         <f>E15 / (20 - 2)</f>
         <v>34.187247922089426</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="19">
         <f t="shared" si="4"/>
         <v>178</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="23">
         <f t="shared" si="0"/>
         <v>77.347872536639784</v>
       </c>
-      <c r="I16" s="32">
+      <c r="I16" s="24">
         <f t="shared" si="5"/>
         <v>74.311679780296856</v>
       </c>
-      <c r="J16" s="32">
+      <c r="J16" s="24">
         <f t="shared" si="1"/>
         <v>80.384065292982712</v>
       </c>
-      <c r="K16" s="32">
+      <c r="K16" s="24">
         <f t="shared" si="2"/>
         <v>64.694151705753697</v>
       </c>
-      <c r="L16" s="32">
+      <c r="L16" s="24">
         <f t="shared" si="3"/>
         <v>90.001593367525871</v>
       </c>
-      <c r="M16" s="30">
+      <c r="M16" s="22">
         <f t="shared" si="6"/>
         <v>6.1090638628756876E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="16" thickBot="1">
+    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>154</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="28">
         <v>57.209055967964801</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
-      <c r="G17" s="27">
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="G17" s="19">
         <f t="shared" si="4"/>
         <v>154</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="23">
         <f t="shared" si="0"/>
         <v>53.137126993931389</v>
       </c>
-      <c r="I17" s="32">
+      <c r="I17" s="24">
         <f t="shared" si="5"/>
         <v>49.396338382306183</v>
       </c>
-      <c r="J17" s="32">
+      <c r="J17" s="24">
         <f t="shared" si="1"/>
         <v>56.877915605556595</v>
       </c>
-      <c r="K17" s="32">
+      <c r="K17" s="24">
         <f t="shared" si="2"/>
         <v>40.296111307888637</v>
       </c>
-      <c r="L17" s="32">
+      <c r="L17" s="24">
         <f t="shared" si="3"/>
         <v>65.978142679974141</v>
       </c>
-      <c r="M17" s="30">
+      <c r="M17" s="22">
         <f t="shared" si="6"/>
         <v>9.273471043645834E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="16" thickBot="1">
+    <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>190</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="28">
         <v>90.179853518718915</v>
       </c>
-      <c r="D18" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" s="26"/>
-      <c r="G18" s="27">
+      <c r="D18" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="G18" s="19">
         <f t="shared" si="4"/>
         <v>190</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="23">
         <f t="shared" si="0"/>
         <v>89.453245307993967</v>
       </c>
-      <c r="I18" s="32">
+      <c r="I18" s="24">
         <f t="shared" si="5"/>
         <v>85.228288876695657</v>
       </c>
-      <c r="J18" s="32">
+      <c r="J18" s="24">
         <f t="shared" si="1"/>
         <v>93.678201739292277</v>
       </c>
-      <c r="K18" s="32">
+      <c r="K18" s="24">
         <f t="shared" si="2"/>
         <v>76.462924247346535</v>
       </c>
-      <c r="L18" s="32">
+      <c r="L18" s="24">
         <f t="shared" si="3"/>
         <v>102.4435663686414</v>
       </c>
-      <c r="M18" s="30">
+      <c r="M18" s="22">
         <f t="shared" si="6"/>
         <v>0.11829338381960171</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="16" thickBot="1">
+    <row r="19" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>195</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="28">
         <v>98.141602375765785</v>
       </c>
-      <c r="D19" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="26">
+      <c r="D19" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="18">
         <v>-100</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="19">
         <f t="shared" si="4"/>
         <v>195</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="23">
         <f t="shared" si="0"/>
         <v>94.497150629391541</v>
       </c>
-      <c r="I19" s="32">
+      <c r="I19" s="24">
         <f t="shared" si="5"/>
         <v>89.637625257838749</v>
       </c>
-      <c r="J19" s="32">
+      <c r="J19" s="24">
         <f t="shared" si="1"/>
         <v>99.356676000944333</v>
       </c>
-      <c r="K19" s="32">
+      <c r="K19" s="24">
         <f t="shared" si="2"/>
         <v>81.286807286045146</v>
       </c>
-      <c r="L19" s="32">
+      <c r="L19" s="24">
         <f t="shared" si="3"/>
         <v>107.70749397273794</v>
       </c>
-      <c r="M19" s="30">
+      <c r="M19" s="22">
         <f t="shared" si="6"/>
         <v>0.1564961628182156</v>
       </c>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-    </row>
-    <row r="20" spans="1:18" ht="16" thickBot="1">
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>182</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="28">
         <v>79.708734856183924</v>
       </c>
-      <c r="D20" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="26">
+      <c r="D20" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="18">
         <v>-100</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="19">
         <f t="shared" si="4"/>
         <v>182</v>
       </c>
-      <c r="H20" s="31">
+      <c r="H20" s="23">
         <f t="shared" si="0"/>
         <v>81.382996793757854</v>
       </c>
-      <c r="I20" s="32">
+      <c r="I20" s="24">
         <f t="shared" si="5"/>
         <v>78.024502344825407</v>
       </c>
-      <c r="J20" s="32">
+      <c r="J20" s="24">
         <f t="shared" si="1"/>
         <v>84.741491242690302</v>
       </c>
-      <c r="K20" s="32">
+      <c r="K20" s="24">
         <f t="shared" si="2"/>
         <v>68.64809713275379</v>
       </c>
-      <c r="L20" s="32">
+      <c r="L20" s="24">
         <f t="shared" si="3"/>
         <v>94.117896454761919</v>
       </c>
-      <c r="M20" s="30">
+      <c r="M20" s="22">
         <f t="shared" si="6"/>
         <v>7.4748977314986961E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="16" thickBot="1">
+    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>184</v>
       </c>
-      <c r="B21" s="36">
+      <c r="B21" s="28">
         <v>88.405863665316872</v>
       </c>
-      <c r="D21" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" s="26">
+      <c r="D21" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="18">
         <f>B27 / E10</f>
         <v>4.9294769938131786</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="19">
         <f t="shared" si="4"/>
         <v>184</v>
       </c>
-      <c r="H21" s="31">
+      <c r="H21" s="23">
         <f t="shared" si="0"/>
         <v>83.400558922316861</v>
       </c>
-      <c r="I21" s="32">
+      <c r="I21" s="24">
         <f t="shared" si="5"/>
         <v>79.848645905880844</v>
       </c>
-      <c r="J21" s="32">
+      <c r="J21" s="24">
         <f t="shared" si="1"/>
         <v>86.952471938752879</v>
       </c>
-      <c r="K21" s="32">
+      <c r="K21" s="24">
         <f t="shared" si="2"/>
         <v>70.613289061683631</v>
       </c>
-      <c r="L21" s="32">
+      <c r="L21" s="24">
         <f t="shared" si="3"/>
         <v>96.187828782950092</v>
       </c>
-      <c r="M21" s="30">
+      <c r="M21" s="22">
         <f t="shared" si="6"/>
         <v>8.3606612799621324E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="16" thickBot="1">
+    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>156</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="28">
         <v>41.795669608995773</v>
       </c>
-      <c r="D22" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="26">
+      <c r="D22" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="18">
         <f>(E14 - E19) / (SQRT(E16) * SQRT(E21))</f>
         <v>-0.17063652613948144</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="19">
         <f t="shared" si="4"/>
         <v>156</v>
       </c>
-      <c r="H22" s="31">
+      <c r="H22" s="23">
         <f t="shared" si="0"/>
         <v>55.154689122490424</v>
       </c>
-      <c r="I22" s="32">
+      <c r="I22" s="24">
         <f t="shared" si="5"/>
         <v>51.622941225300004</v>
       </c>
-      <c r="J22" s="32">
+      <c r="J22" s="24">
         <f t="shared" si="1"/>
         <v>58.686437019680845</v>
       </c>
-      <c r="K22" s="32">
+      <c r="K22" s="24">
         <f t="shared" si="2"/>
         <v>42.373005836567543</v>
       </c>
-      <c r="L22" s="32">
+      <c r="L22" s="24">
         <f t="shared" si="3"/>
         <v>67.936372408413305</v>
       </c>
-      <c r="M22" s="30">
+      <c r="M22" s="22">
         <f t="shared" si="6"/>
         <v>8.2659995266912367E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="16" thickBot="1">
+    <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>154</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="28">
         <v>65.818202772477463</v>
       </c>
-      <c r="D23" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="27">
+      <c r="D23" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="19">
         <f t="shared" si="4"/>
         <v>154</v>
       </c>
-      <c r="H23" s="34">
+      <c r="H23" s="26">
         <f t="shared" si="0"/>
         <v>53.137126993931389</v>
       </c>
-      <c r="I23" s="35">
+      <c r="I23" s="27">
         <f t="shared" si="5"/>
         <v>49.396338382306183</v>
       </c>
-      <c r="J23" s="35">
+      <c r="J23" s="27">
         <f t="shared" si="1"/>
         <v>56.877915605556595</v>
       </c>
-      <c r="K23" s="35">
+      <c r="K23" s="27">
         <f t="shared" si="2"/>
         <v>40.296111307888637</v>
       </c>
-      <c r="L23" s="35">
+      <c r="L23" s="27">
         <f t="shared" si="3"/>
         <v>65.978142679974141</v>
       </c>
-      <c r="M23" s="30">
+      <c r="M23" s="22">
         <f t="shared" si="6"/>
         <v>9.273471043645834E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="26">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="18">
         <f>COUNT(A4:A23)</f>
         <v>20</v>
       </c>
-      <c r="E24" s="25" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="25" t="s">
+      <c r="E24" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="B25" s="26">
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="18">
         <f>AVERAGE(A4:A23)</f>
         <v>169.9</v>
       </c>
-      <c r="D25" s="25"/>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26" s="26">
+      <c r="D25" s="17"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="18">
         <f>AVERAGE(B4:B23)</f>
         <v>69.176745915975715</v>
       </c>
-      <c r="D26" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="26">
+      <c r="D26" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" s="26">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="18">
         <f>SUMSQ(A4:A23)</f>
         <v>583236</v>
       </c>
-      <c r="D27" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="26">
+      <c r="D27" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="18">
         <v>1</v>
       </c>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" s="26">
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="18">
         <f>SUMSQ(B4:B23)</f>
         <v>102343.96416331873</v>
       </c>
-      <c r="D28" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" s="26">
+      <c r="D28" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="18">
         <f>B24 / E10</f>
         <v>1.690388451266101E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
-      <c r="A29" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="26">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="18">
         <f>SUMPRODUCT(A4:A23,B4:B23)</f>
         <v>241030.32964255026</v>
       </c>
-      <c r="D29" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" s="26">
+      <c r="D29" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="18">
         <f>(E13 - E26) / (SQRT(E16) * SQRT(E28))</f>
         <v>0.11551059664328837</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
-      <c r="A30" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" s="26">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="18">
         <f>(B29 - B24 * B25 * B26) / SQRT((B27 - B24 * POWER(B25,2)) * (B28 - B24 * POWER(B26,2)))</f>
         <v>0.95250257944509309</v>
       </c>
-      <c r="D30" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="A31" s="25" t="s">
+      <c r="D30" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="26">
+      <c r="E30" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="18">
         <f>SUM(A4:A23)</f>
         <v>3398</v>
       </c>
-      <c r="E31" s="25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="A32" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="26">
+      <c r="E31" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="18">
         <f>SUM(B4:B23)</f>
         <v>1383.5349183195144</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="25"/>
-      <c r="B33" s="26"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="25"/>
-      <c r="B34" s="26"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="25"/>
-      <c r="B35" s="26"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="39" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+      <c r="B33" s="18"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="17"/>
+      <c r="B35" s="18"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="37" t="s">
+      <c r="D36" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="E36" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D36" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="E36" s="40" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="25">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="17">
         <f>A4</f>
         <v>150</v>
       </c>
-      <c r="B37" s="38">
+      <c r="B37" s="30">
         <f>B4</f>
         <v>50.439765218123881</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="10">
         <f>A37^2</f>
         <v>22500</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="10">
         <f>B37^2</f>
         <v>2544.1699152594597</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="10">
         <f>A37*B37</f>
         <v>7565.9647827185818</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="17">
         <f t="shared" ref="A38:B55" si="7">A5</f>
         <v>177</v>
       </c>
-      <c r="B38" s="38">
+      <c r="B38" s="30">
         <f t="shared" si="7"/>
         <v>73.187912440909315</v>
       </c>
-      <c r="C38" s="12">
-        <f t="shared" ref="C38:C57" si="8">A38^2</f>
+      <c r="C38" s="10">
+        <f t="shared" ref="C38:C56" si="8">A38^2</f>
         <v>31329</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="10">
         <f t="shared" ref="D38:D56" si="9">B38^2</f>
         <v>5356.4705274582084</v>
       </c>
-      <c r="E38" s="12">
-        <f t="shared" ref="E38:E57" si="10">A38*B38</f>
+      <c r="E38" s="10">
+        <f t="shared" ref="E38:E56" si="10">A38*B38</f>
         <v>12954.260502040948</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="17">
         <f t="shared" si="7"/>
         <v>154</v>
       </c>
-      <c r="B39" s="38">
+      <c r="B39" s="30">
         <f t="shared" si="7"/>
         <v>53.223118804124248</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="10">
         <f t="shared" si="8"/>
         <v>23716</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="10">
         <f t="shared" si="9"/>
         <v>2832.7003752379242</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="10">
         <f t="shared" si="10"/>
         <v>8196.3602958351348</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="17">
         <f t="shared" si="7"/>
         <v>152</v>
       </c>
-      <c r="B40" s="38">
+      <c r="B40" s="30">
         <f t="shared" si="7"/>
         <v>43.763103903511222</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="10">
         <f t="shared" si="8"/>
         <v>23104</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="10">
         <f t="shared" si="9"/>
         <v>1915.2092632695192</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="10">
         <f t="shared" si="10"/>
         <v>6651.9917933337056</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="17">
         <f t="shared" si="7"/>
         <v>169</v>
       </c>
-      <c r="B41" s="38">
+      <c r="B41" s="30">
         <f t="shared" si="7"/>
         <v>68.508636005000128</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="10">
         <f t="shared" si="8"/>
         <v>28561</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="10">
         <f t="shared" si="9"/>
         <v>4693.4332072655998</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="10">
         <f t="shared" si="10"/>
         <v>11577.959484845022</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="17">
         <f t="shared" si="7"/>
         <v>200</v>
       </c>
-      <c r="B42" s="38">
+      <c r="B42" s="30">
         <f t="shared" si="7"/>
         <v>94.464449979056482</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="10">
         <f t="shared" si="8"/>
         <v>40000</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="10">
         <f t="shared" si="9"/>
         <v>8923.5323098456647</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="10">
         <f t="shared" si="10"/>
         <v>18892.889995811296</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="17">
         <f t="shared" si="7"/>
         <v>196</v>
       </c>
-      <c r="B43" s="38">
+      <c r="B43" s="30">
         <f t="shared" si="7"/>
         <v>99.424545369522093</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="10">
         <f t="shared" si="8"/>
         <v>38416</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="10">
         <f t="shared" si="9"/>
         <v>9885.2402219361575</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="10">
         <f t="shared" si="10"/>
         <v>19487.21089242633</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="17">
         <f t="shared" si="7"/>
         <v>181</v>
       </c>
-      <c r="B44" s="38">
+      <c r="B44" s="30">
         <f t="shared" si="7"/>
         <v>73.703292268249257</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="10">
         <f t="shared" si="8"/>
         <v>32761</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="10">
         <f t="shared" si="9"/>
         <v>5432.1752911789708</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="10">
         <f t="shared" si="10"/>
         <v>13340.295900553116</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="17">
         <f t="shared" si="7"/>
         <v>152</v>
       </c>
-      <c r="B45" s="38">
+      <c r="B45" s="30">
         <f t="shared" si="7"/>
         <v>49.888221905129662</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="10">
         <f t="shared" si="8"/>
         <v>23104</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="10">
         <f t="shared" si="9"/>
         <v>2488.8346848554588</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="10">
         <f t="shared" si="10"/>
         <v>7583.0097295797086</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="17">
         <f t="shared" si="7"/>
         <v>172</v>
       </c>
-      <c r="B46" s="38">
+      <c r="B46" s="30">
         <f t="shared" si="7"/>
         <v>73.995890168108957</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="10">
         <f t="shared" si="8"/>
         <v>29584</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="10">
         <f t="shared" si="9"/>
         <v>5475.3917617708439</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="10">
         <f t="shared" si="10"/>
         <v>12727.293108914741</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="17">
         <f t="shared" si="7"/>
         <v>152</v>
       </c>
-      <c r="B47" s="38">
+      <c r="B47" s="30">
         <f t="shared" si="7"/>
         <v>58.037306645999138</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="10">
         <f t="shared" si="8"/>
         <v>23104</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="10">
         <f t="shared" si="9"/>
         <v>3368.3289627217355</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E47" s="10">
         <f t="shared" si="10"/>
         <v>8821.670610191868</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="17">
         <f t="shared" si="7"/>
         <v>150</v>
       </c>
-      <c r="B48" s="38">
+      <c r="B48" s="30">
         <f t="shared" si="7"/>
         <v>46.007799123494053</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="10">
         <f t="shared" si="8"/>
         <v>22500</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="10">
         <f t="shared" si="9"/>
         <v>2116.7175801877802</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="10">
         <f t="shared" si="10"/>
         <v>6901.1698685241081</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="17">
         <f t="shared" si="7"/>
         <v>178</v>
       </c>
-      <c r="B49" s="38">
+      <c r="B49" s="30">
         <f t="shared" si="7"/>
         <v>77.631893722862657</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="10">
         <f t="shared" si="8"/>
         <v>31684</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="10">
         <f t="shared" si="9"/>
         <v>6026.7109229978423</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="10">
         <f t="shared" si="10"/>
         <v>13818.477082669553</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="17">
         <f t="shared" si="7"/>
         <v>154</v>
       </c>
-      <c r="B50" s="38">
+      <c r="B50" s="30">
         <f t="shared" si="7"/>
         <v>57.209055967964801</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="10">
         <f t="shared" si="8"/>
         <v>23716</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="10">
         <f t="shared" si="9"/>
         <v>3272.8760847457288</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E50" s="10">
         <f t="shared" si="10"/>
         <v>8810.1946190665785</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="17">
         <f t="shared" si="7"/>
         <v>190</v>
       </c>
-      <c r="B51" s="38">
+      <c r="B51" s="30">
         <f t="shared" si="7"/>
         <v>90.179853518718915</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="10">
         <f t="shared" si="8"/>
         <v>36100</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="10">
         <f t="shared" si="9"/>
         <v>8132.4059806576006</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E51" s="10">
         <f t="shared" si="10"/>
         <v>17134.172168556594</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="17">
         <f t="shared" si="7"/>
         <v>195</v>
       </c>
-      <c r="B52" s="38">
+      <c r="B52" s="30">
         <f t="shared" si="7"/>
         <v>98.141602375765785</v>
       </c>
-      <c r="C52" s="12">
+      <c r="C52" s="10">
         <f t="shared" si="8"/>
         <v>38025</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D52" s="10">
         <f t="shared" si="9"/>
         <v>9631.7741168829161</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E52" s="10">
         <f t="shared" si="10"/>
         <v>19137.612463274327</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="17">
         <f t="shared" si="7"/>
         <v>182</v>
       </c>
-      <c r="B53" s="38">
+      <c r="B53" s="30">
         <f t="shared" si="7"/>
         <v>79.708734856183924</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="10">
         <f t="shared" si="8"/>
         <v>33124</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D53" s="10">
         <f t="shared" si="9"/>
         <v>6353.4824123734297</v>
       </c>
-      <c r="E53" s="12">
+      <c r="E53" s="10">
         <f t="shared" si="10"/>
         <v>14506.989743825474</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="17">
         <f t="shared" si="7"/>
         <v>184</v>
       </c>
-      <c r="B54" s="38">
+      <c r="B54" s="30">
         <f t="shared" si="7"/>
         <v>88.405863665316872</v>
       </c>
-      <c r="C54" s="12">
+      <c r="C54" s="10">
         <f t="shared" si="8"/>
         <v>33856</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D54" s="10">
         <f t="shared" si="9"/>
         <v>7815.5967304105943</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E54" s="10">
         <f t="shared" si="10"/>
         <v>16266.678914418304</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="17">
         <f t="shared" si="7"/>
         <v>156</v>
       </c>
-      <c r="B55" s="38">
+      <c r="B55" s="30">
         <f t="shared" si="7"/>
         <v>41.795669608995773</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="10">
         <f t="shared" si="8"/>
         <v>24336</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="10">
         <f t="shared" si="9"/>
         <v>1746.8779980643328</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E55" s="10">
         <f t="shared" si="10"/>
         <v>6520.1244590033402</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="17">
         <f>A23</f>
         <v>154</v>
       </c>
-      <c r="B56" s="38">
+      <c r="B56" s="30">
         <f t="shared" ref="B56" si="11">B23</f>
         <v>65.818202772477463</v>
       </c>
-      <c r="C56" s="12">
+      <c r="C56" s="10">
         <f t="shared" si="8"/>
         <v>23716</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D56" s="10">
         <f t="shared" si="9"/>
         <v>4332.0358161989598</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E56" s="10">
         <f t="shared" si="10"/>
         <v>10136.003226961529</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="12">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
         <f>SUM(A37:A56)</f>
         <v>3398</v>
       </c>
-      <c r="B57" s="12">
+      <c r="B57" s="10">
         <f>SUM(B37:B56)</f>
         <v>1383.5349183195144</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="10">
         <f>SUM(C37:C56)</f>
         <v>583236</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="10">
         <f>SUM(D37:D56)</f>
         <v>102343.96416331873</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E57" s="10">
         <f>SUM(E37:E56)</f>
         <v>241030.32964255026</v>
       </c>
-      <c r="F57" s="12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="12">
+      <c r="F57" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
         <f>AVERAGE(A37:A56)</f>
         <v>169.9</v>
       </c>
-      <c r="B58" s="12">
+      <c r="B58" s="10">
         <f>AVERAGE(B37:B56)</f>
         <v>69.176745915975715</v>
       </c>
-      <c r="F58" s="12" t="s">
+      <c r="F58" s="10" t="s">
         <v>25</v>
       </c>
     </row>
